--- a/VersionRecords/Version 5.3.8 201704111/版本Bug和特性计划及评审表v5.3.8_极光组.xlsx
+++ b/VersionRecords/Version 5.3.8 201704111/版本Bug和特性计划及评审表v5.3.8_极光组.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="26124"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yuanbingqiu/work/Mogo_Doc/VersionRecords/Version 5.3.8 201704111/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="27585" windowHeight="13650" tabRatio="787"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14580" tabRatio="787" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="01 版本5.3.6 新特性|Fix Bug" sheetId="1" r:id="rId1"/>
@@ -25,6 +30,11 @@
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
   </definedNames>
   <calcPr calcId="124519" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -297,7 +307,6 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>4</t>
@@ -336,8 +345,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="27">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="28" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -530,6 +539,13 @@
       <color theme="1"/>
       <name val="微软雅黑"/>
       <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="11"/>
+      <name val="宋体"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -770,7 +786,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="14">
+  <cellStyleXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -803,6 +819,9 @@
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1089,6 +1108,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="13" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="17" fillId="6" borderId="10" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1116,11 +1138,8 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="17" fillId="6" borderId="10" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="14">
+  <cellStyles count="15">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="常规 2" xfId="8"/>
     <cellStyle name="常规 2 2" xfId="6"/>
@@ -1134,7 +1153,8 @@
     <cellStyle name="常规 9" xfId="4"/>
     <cellStyle name="超链接" xfId="1" builtinId="8"/>
     <cellStyle name="甘特图" xfId="3"/>
-    <cellStyle name="强调文字颜色 4" xfId="5" builtinId="41"/>
+    <cellStyle name="个性色4" xfId="5" builtinId="41"/>
+    <cellStyle name="已访问的超链接" xfId="14" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="1">
     <dxf>
@@ -1148,7 +1168,7 @@
       </fill>
     </dxf>
   </dxfs>
-  <tableStyles count="1" defaultTableStyle="TableStyleMedium2">
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium7">
     <tableStyle name="MySqlDefault" count="1">
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
@@ -1240,7 +1260,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="C7EDCC"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -1560,40 +1580,40 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X168"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O11" sqref="O11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:T5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="6.875" style="55" customWidth="1"/>
-    <col min="2" max="3" width="9.875" style="55" customWidth="1"/>
+    <col min="1" max="1" width="6.83203125" style="55" customWidth="1"/>
+    <col min="2" max="3" width="9.83203125" style="55" customWidth="1"/>
     <col min="4" max="4" width="29" style="56" customWidth="1"/>
     <col min="5" max="5" width="15" style="55" customWidth="1"/>
-    <col min="6" max="6" width="18.125" style="55" customWidth="1"/>
-    <col min="7" max="7" width="9.625" style="55" customWidth="1"/>
-    <col min="8" max="8" width="12.125" style="56" customWidth="1"/>
-    <col min="9" max="9" width="9.625" style="55" customWidth="1"/>
-    <col min="10" max="10" width="12.375" style="56" customWidth="1"/>
-    <col min="11" max="11" width="10.25" style="56" customWidth="1"/>
-    <col min="12" max="12" width="13.875" style="55" customWidth="1"/>
-    <col min="13" max="13" width="15.875" style="55" customWidth="1"/>
-    <col min="14" max="15" width="11.375" style="55" customWidth="1"/>
+    <col min="6" max="6" width="18.1640625" style="55" customWidth="1"/>
+    <col min="7" max="7" width="9.6640625" style="55" customWidth="1"/>
+    <col min="8" max="8" width="12.1640625" style="56" customWidth="1"/>
+    <col min="9" max="9" width="9.6640625" style="55" customWidth="1"/>
+    <col min="10" max="10" width="12.33203125" style="56" customWidth="1"/>
+    <col min="11" max="11" width="10.1640625" style="56" customWidth="1"/>
+    <col min="12" max="12" width="13.83203125" style="55" customWidth="1"/>
+    <col min="13" max="13" width="15.83203125" style="55" customWidth="1"/>
+    <col min="14" max="15" width="11.33203125" style="55" customWidth="1"/>
     <col min="16" max="16" width="10" style="56" customWidth="1"/>
     <col min="17" max="17" width="12.5" style="56" customWidth="1"/>
-    <col min="18" max="18" width="7.625" style="56" customWidth="1"/>
+    <col min="18" max="18" width="7.6640625" style="56" customWidth="1"/>
     <col min="19" max="20" width="12" style="57" customWidth="1"/>
     <col min="21" max="21" width="17" style="57" customWidth="1"/>
-    <col min="22" max="22" width="14.125" style="57" customWidth="1"/>
-    <col min="23" max="23" width="41.875" style="56" customWidth="1"/>
-    <col min="24" max="24" width="8.875" customWidth="1"/>
+    <col min="22" max="22" width="14.1640625" style="57" customWidth="1"/>
+    <col min="23" max="23" width="41.83203125" style="56" customWidth="1"/>
+    <col min="24" max="24" width="8.83203125" customWidth="1"/>
     <col min="25" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" s="53" customFormat="1" ht="27.75" thickBot="1">
+    <row r="1" spans="1:24" s="53" customFormat="1" ht="29" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A1" s="58" t="s">
         <v>0</v>
       </c>
@@ -1664,7 +1684,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:24" s="54" customFormat="1" ht="23.25" customHeight="1">
+    <row r="2" spans="1:24" s="54" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="86">
         <v>1</v>
       </c>
@@ -1686,13 +1706,13 @@
       <c r="G2" s="61" t="s">
         <v>83</v>
       </c>
-      <c r="H2" s="103">
+      <c r="H2" s="94">
         <v>42825</v>
       </c>
       <c r="I2" s="61" t="s">
         <v>83</v>
       </c>
-      <c r="J2" s="103">
+      <c r="J2" s="94">
         <v>42825</v>
       </c>
       <c r="K2" s="61"/>
@@ -1711,7 +1731,7 @@
       <c r="P2" s="88" t="s">
         <v>85</v>
       </c>
-      <c r="Q2" s="103">
+      <c r="Q2" s="94">
         <v>42832</v>
       </c>
       <c r="R2" s="89" t="s">
@@ -1726,7 +1746,7 @@
       <c r="W2" s="92"/>
       <c r="X2" s="77"/>
     </row>
-    <row r="3" spans="1:24" s="54" customFormat="1" ht="23.25" customHeight="1">
+    <row r="3" spans="1:24" s="54" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="86">
         <v>2</v>
       </c>
@@ -1748,13 +1768,13 @@
       <c r="G3" s="61" t="s">
         <v>83</v>
       </c>
-      <c r="H3" s="103">
+      <c r="H3" s="94">
         <v>42825</v>
       </c>
       <c r="I3" s="61" t="s">
         <v>83</v>
       </c>
-      <c r="J3" s="103">
+      <c r="J3" s="94">
         <v>42825</v>
       </c>
       <c r="K3" s="61"/>
@@ -1773,7 +1793,7 @@
       <c r="P3" s="88" t="s">
         <v>85</v>
       </c>
-      <c r="Q3" s="103">
+      <c r="Q3" s="94">
         <v>42832</v>
       </c>
       <c r="R3" s="89" t="s">
@@ -1788,7 +1808,7 @@
       <c r="W3" s="92"/>
       <c r="X3" s="77"/>
     </row>
-    <row r="4" spans="1:24" s="54" customFormat="1" ht="23.25" customHeight="1">
+    <row r="4" spans="1:24" s="54" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="86">
         <v>3</v>
       </c>
@@ -1810,13 +1830,13 @@
       <c r="G4" s="61" t="s">
         <v>83</v>
       </c>
-      <c r="H4" s="103">
+      <c r="H4" s="94">
         <v>42825</v>
       </c>
       <c r="I4" s="61" t="s">
         <v>83</v>
       </c>
-      <c r="J4" s="103">
+      <c r="J4" s="94">
         <v>42825</v>
       </c>
       <c r="K4" s="61"/>
@@ -1835,7 +1855,7 @@
       <c r="P4" s="88" t="s">
         <v>85</v>
       </c>
-      <c r="Q4" s="103">
+      <c r="Q4" s="94">
         <v>42832</v>
       </c>
       <c r="R4" s="89" t="s">
@@ -1850,7 +1870,7 @@
       <c r="W4" s="92"/>
       <c r="X4" s="77"/>
     </row>
-    <row r="5" spans="1:24" s="54" customFormat="1" ht="23.25" customHeight="1">
+    <row r="5" spans="1:24" s="54" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="86">
         <v>4</v>
       </c>
@@ -1872,13 +1892,13 @@
       <c r="G5" s="61" t="s">
         <v>83</v>
       </c>
-      <c r="H5" s="103">
+      <c r="H5" s="94">
         <v>42825</v>
       </c>
       <c r="I5" s="61" t="s">
         <v>83</v>
       </c>
-      <c r="J5" s="103">
+      <c r="J5" s="94">
         <v>42825</v>
       </c>
       <c r="K5" s="61"/>
@@ -1897,7 +1917,7 @@
       <c r="P5" s="88" t="s">
         <v>85</v>
       </c>
-      <c r="Q5" s="103">
+      <c r="Q5" s="94">
         <v>42832</v>
       </c>
       <c r="R5" s="89" t="s">
@@ -1912,7 +1932,7 @@
       <c r="W5" s="92"/>
       <c r="X5" s="77"/>
     </row>
-    <row r="6" spans="1:24" s="54" customFormat="1" ht="16.5">
+    <row r="6" spans="1:24" s="54" customFormat="1" ht="16" x14ac:dyDescent="0.15">
       <c r="A6" s="59"/>
       <c r="B6" s="59"/>
       <c r="C6" s="59"/>
@@ -1938,7 +1958,7 @@
       <c r="W6" s="78"/>
       <c r="X6" s="77"/>
     </row>
-    <row r="7" spans="1:24" s="54" customFormat="1" ht="16.5">
+    <row r="7" spans="1:24" s="54" customFormat="1" ht="16" x14ac:dyDescent="0.15">
       <c r="A7" s="59"/>
       <c r="B7" s="59"/>
       <c r="C7" s="59"/>
@@ -1964,7 +1984,7 @@
       <c r="W7" s="78"/>
       <c r="X7" s="77"/>
     </row>
-    <row r="8" spans="1:24" s="54" customFormat="1" ht="16.5">
+    <row r="8" spans="1:24" s="54" customFormat="1" ht="16" x14ac:dyDescent="0.15">
       <c r="A8" s="59"/>
       <c r="B8" s="59"/>
       <c r="C8" s="59"/>
@@ -1990,7 +2010,7 @@
       <c r="W8" s="78"/>
       <c r="X8" s="77"/>
     </row>
-    <row r="9" spans="1:24" s="54" customFormat="1" ht="16.5">
+    <row r="9" spans="1:24" s="54" customFormat="1" ht="16" x14ac:dyDescent="0.15">
       <c r="A9" s="59"/>
       <c r="B9" s="59"/>
       <c r="C9" s="59"/>
@@ -2016,7 +2036,7 @@
       <c r="W9" s="78"/>
       <c r="X9" s="77"/>
     </row>
-    <row r="10" spans="1:24" s="54" customFormat="1" ht="16.5">
+    <row r="10" spans="1:24" s="54" customFormat="1" ht="16" x14ac:dyDescent="0.15">
       <c r="A10" s="59"/>
       <c r="B10" s="59"/>
       <c r="C10" s="59"/>
@@ -2042,7 +2062,7 @@
       <c r="W10" s="78"/>
       <c r="X10" s="77"/>
     </row>
-    <row r="11" spans="1:24" s="54" customFormat="1" ht="16.5">
+    <row r="11" spans="1:24" s="54" customFormat="1" ht="16" x14ac:dyDescent="0.15">
       <c r="A11" s="59"/>
       <c r="B11" s="59"/>
       <c r="C11" s="59"/>
@@ -2068,7 +2088,7 @@
       <c r="W11" s="78"/>
       <c r="X11" s="77"/>
     </row>
-    <row r="12" spans="1:24" s="54" customFormat="1" ht="16.5">
+    <row r="12" spans="1:24" s="54" customFormat="1" ht="16" x14ac:dyDescent="0.15">
       <c r="A12" s="59"/>
       <c r="B12" s="59"/>
       <c r="C12" s="59"/>
@@ -2094,7 +2114,7 @@
       <c r="W12" s="78"/>
       <c r="X12" s="77"/>
     </row>
-    <row r="13" spans="1:24" s="54" customFormat="1" ht="16.5">
+    <row r="13" spans="1:24" s="54" customFormat="1" ht="16" x14ac:dyDescent="0.15">
       <c r="A13" s="59"/>
       <c r="B13" s="59"/>
       <c r="C13" s="59"/>
@@ -2120,7 +2140,7 @@
       <c r="W13" s="78"/>
       <c r="X13" s="77"/>
     </row>
-    <row r="14" spans="1:24" s="54" customFormat="1" ht="16.5">
+    <row r="14" spans="1:24" s="54" customFormat="1" ht="16" x14ac:dyDescent="0.15">
       <c r="A14" s="59"/>
       <c r="B14" s="59"/>
       <c r="C14" s="59"/>
@@ -2146,7 +2166,7 @@
       <c r="W14" s="78"/>
       <c r="X14" s="77"/>
     </row>
-    <row r="15" spans="1:24" s="54" customFormat="1" ht="16.5">
+    <row r="15" spans="1:24" s="54" customFormat="1" ht="16" x14ac:dyDescent="0.15">
       <c r="A15" s="59"/>
       <c r="B15" s="59"/>
       <c r="C15" s="59"/>
@@ -2172,7 +2192,7 @@
       <c r="W15" s="80"/>
       <c r="X15" s="77"/>
     </row>
-    <row r="16" spans="1:24" ht="16.5">
+    <row r="16" spans="1:24" ht="16" x14ac:dyDescent="0.15">
       <c r="A16" s="59"/>
       <c r="B16" s="59"/>
       <c r="C16" s="59"/>
@@ -2197,7 +2217,7 @@
       <c r="V16" s="67"/>
       <c r="W16" s="68"/>
     </row>
-    <row r="17" spans="1:23" ht="16.5">
+    <row r="17" spans="1:23" ht="16" x14ac:dyDescent="0.15">
       <c r="A17" s="59"/>
       <c r="B17" s="59"/>
       <c r="C17" s="59"/>
@@ -2222,7 +2242,7 @@
       <c r="V17" s="67"/>
       <c r="W17" s="68"/>
     </row>
-    <row r="18" spans="1:23" ht="16.5">
+    <row r="18" spans="1:23" ht="16" x14ac:dyDescent="0.15">
       <c r="A18" s="59"/>
       <c r="B18" s="59"/>
       <c r="C18" s="59"/>
@@ -2247,7 +2267,7 @@
       <c r="V18" s="67"/>
       <c r="W18" s="68"/>
     </row>
-    <row r="19" spans="1:23" ht="16.5">
+    <row r="19" spans="1:23" ht="16" x14ac:dyDescent="0.15">
       <c r="A19" s="59"/>
       <c r="B19" s="59"/>
       <c r="C19" s="59"/>
@@ -2272,7 +2292,7 @@
       <c r="V19" s="67"/>
       <c r="W19" s="78"/>
     </row>
-    <row r="20" spans="1:23" ht="16.5">
+    <row r="20" spans="1:23" ht="16" x14ac:dyDescent="0.15">
       <c r="A20" s="59"/>
       <c r="B20" s="59"/>
       <c r="C20" s="59"/>
@@ -2297,7 +2317,7 @@
       <c r="V20" s="67"/>
       <c r="W20" s="78"/>
     </row>
-    <row r="21" spans="1:23" ht="16.5">
+    <row r="21" spans="1:23" ht="16" x14ac:dyDescent="0.15">
       <c r="A21" s="59"/>
       <c r="B21" s="59"/>
       <c r="C21" s="59"/>
@@ -2322,7 +2342,7 @@
       <c r="V21" s="67"/>
       <c r="W21" s="78"/>
     </row>
-    <row r="22" spans="1:23" ht="16.5">
+    <row r="22" spans="1:23" ht="16" x14ac:dyDescent="0.15">
       <c r="A22" s="59"/>
       <c r="B22" s="59"/>
       <c r="C22" s="59"/>
@@ -2347,7 +2367,7 @@
       <c r="V22" s="81"/>
       <c r="W22" s="82"/>
     </row>
-    <row r="23" spans="1:23" ht="16.5">
+    <row r="23" spans="1:23" ht="16" x14ac:dyDescent="0.15">
       <c r="A23" s="59"/>
       <c r="B23" s="59"/>
       <c r="C23" s="59"/>
@@ -2372,7 +2392,7 @@
       <c r="V23" s="83"/>
       <c r="W23" s="82"/>
     </row>
-    <row r="24" spans="1:23" ht="16.5">
+    <row r="24" spans="1:23" ht="16" x14ac:dyDescent="0.15">
       <c r="A24" s="59"/>
       <c r="B24" s="59"/>
       <c r="C24" s="59"/>
@@ -2397,7 +2417,7 @@
       <c r="V24" s="84"/>
       <c r="W24" s="82"/>
     </row>
-    <row r="25" spans="1:23" ht="16.5">
+    <row r="25" spans="1:23" ht="16" x14ac:dyDescent="0.15">
       <c r="A25" s="59"/>
       <c r="B25" s="59"/>
       <c r="C25" s="59"/>
@@ -2422,7 +2442,7 @@
       <c r="V25" s="83"/>
       <c r="W25" s="82"/>
     </row>
-    <row r="26" spans="1:23" ht="16.5">
+    <row r="26" spans="1:23" ht="16" x14ac:dyDescent="0.15">
       <c r="A26" s="59"/>
       <c r="B26" s="59"/>
       <c r="C26" s="59"/>
@@ -2447,7 +2467,7 @@
       <c r="V26" s="83"/>
       <c r="W26" s="82"/>
     </row>
-    <row r="27" spans="1:23" ht="16.5">
+    <row r="27" spans="1:23" ht="16" x14ac:dyDescent="0.15">
       <c r="A27" s="59"/>
       <c r="B27" s="59"/>
       <c r="C27" s="59"/>
@@ -2472,7 +2492,7 @@
       <c r="V27" s="79"/>
       <c r="W27" s="70"/>
     </row>
-    <row r="28" spans="1:23" ht="16.5">
+    <row r="28" spans="1:23" ht="16" x14ac:dyDescent="0.15">
       <c r="A28" s="59"/>
       <c r="B28" s="59"/>
       <c r="C28" s="59"/>
@@ -2497,7 +2517,7 @@
       <c r="V28" s="67"/>
       <c r="W28" s="78"/>
     </row>
-    <row r="29" spans="1:23" ht="16.5">
+    <row r="29" spans="1:23" ht="16" x14ac:dyDescent="0.15">
       <c r="A29" s="59"/>
       <c r="B29" s="59"/>
       <c r="C29" s="59"/>
@@ -2522,7 +2542,7 @@
       <c r="V29" s="67"/>
       <c r="W29" s="78"/>
     </row>
-    <row r="30" spans="1:23" ht="16.5">
+    <row r="30" spans="1:23" ht="16" x14ac:dyDescent="0.15">
       <c r="A30" s="59"/>
       <c r="B30" s="59"/>
       <c r="C30" s="59"/>
@@ -2547,7 +2567,7 @@
       <c r="V30" s="67"/>
       <c r="W30" s="78"/>
     </row>
-    <row r="31" spans="1:23" ht="16.5">
+    <row r="31" spans="1:23" ht="16" x14ac:dyDescent="0.15">
       <c r="A31" s="59"/>
       <c r="B31" s="59"/>
       <c r="C31" s="59"/>
@@ -2572,7 +2592,7 @@
       <c r="V31" s="83"/>
       <c r="W31" s="82"/>
     </row>
-    <row r="32" spans="1:23" ht="16.5">
+    <row r="32" spans="1:23" ht="16" x14ac:dyDescent="0.15">
       <c r="A32" s="59"/>
       <c r="B32" s="59"/>
       <c r="C32" s="59"/>
@@ -2597,7 +2617,7 @@
       <c r="V32" s="67"/>
       <c r="W32" s="76"/>
     </row>
-    <row r="33" spans="1:23" ht="16.5">
+    <row r="33" spans="1:23" ht="16" x14ac:dyDescent="0.15">
       <c r="A33" s="59"/>
       <c r="B33" s="59"/>
       <c r="C33" s="59"/>
@@ -2622,7 +2642,7 @@
       <c r="V33" s="67"/>
       <c r="W33" s="78"/>
     </row>
-    <row r="34" spans="1:23" ht="16.5">
+    <row r="34" spans="1:23" ht="16" x14ac:dyDescent="0.15">
       <c r="A34" s="59"/>
       <c r="B34" s="59"/>
       <c r="C34" s="59"/>
@@ -2647,7 +2667,7 @@
       <c r="V34" s="67"/>
       <c r="W34" s="78"/>
     </row>
-    <row r="35" spans="1:23" ht="16.5">
+    <row r="35" spans="1:23" ht="16" x14ac:dyDescent="0.15">
       <c r="A35" s="59"/>
       <c r="B35" s="59"/>
       <c r="C35" s="59"/>
@@ -2672,7 +2692,7 @@
       <c r="V35" s="67"/>
       <c r="W35" s="78"/>
     </row>
-    <row r="36" spans="1:23" ht="16.5">
+    <row r="36" spans="1:23" ht="16" x14ac:dyDescent="0.15">
       <c r="A36" s="59"/>
       <c r="B36" s="59"/>
       <c r="C36" s="59"/>
@@ -2697,7 +2717,7 @@
       <c r="V36" s="67"/>
       <c r="W36" s="78"/>
     </row>
-    <row r="37" spans="1:23" ht="16.5">
+    <row r="37" spans="1:23" ht="16" x14ac:dyDescent="0.15">
       <c r="A37" s="59"/>
       <c r="B37" s="59"/>
       <c r="C37" s="59"/>
@@ -2722,7 +2742,7 @@
       <c r="V37" s="67"/>
       <c r="W37" s="78"/>
     </row>
-    <row r="38" spans="1:23" ht="16.5">
+    <row r="38" spans="1:23" ht="16" x14ac:dyDescent="0.15">
       <c r="A38" s="59"/>
       <c r="B38" s="59"/>
       <c r="C38" s="59"/>
@@ -2747,7 +2767,7 @@
       <c r="V38" s="67"/>
       <c r="W38" s="78"/>
     </row>
-    <row r="39" spans="1:23" ht="16.5">
+    <row r="39" spans="1:23" ht="16" x14ac:dyDescent="0.15">
       <c r="A39" s="59"/>
       <c r="B39" s="59"/>
       <c r="C39" s="59"/>
@@ -2772,7 +2792,7 @@
       <c r="V39" s="67"/>
       <c r="W39" s="78"/>
     </row>
-    <row r="40" spans="1:23" ht="16.5">
+    <row r="40" spans="1:23" ht="16" x14ac:dyDescent="0.15">
       <c r="A40" s="59"/>
       <c r="B40" s="59"/>
       <c r="C40" s="59"/>
@@ -2797,7 +2817,7 @@
       <c r="V40" s="67"/>
       <c r="W40" s="78"/>
     </row>
-    <row r="41" spans="1:23" ht="16.5">
+    <row r="41" spans="1:23" ht="16" x14ac:dyDescent="0.15">
       <c r="A41" s="59"/>
       <c r="B41" s="59"/>
       <c r="C41" s="59"/>
@@ -2822,7 +2842,7 @@
       <c r="V41" s="67"/>
       <c r="W41" s="78"/>
     </row>
-    <row r="42" spans="1:23" ht="16.5">
+    <row r="42" spans="1:23" ht="16" x14ac:dyDescent="0.15">
       <c r="A42" s="59"/>
       <c r="B42" s="59"/>
       <c r="C42" s="59"/>
@@ -2847,7 +2867,7 @@
       <c r="V42" s="67"/>
       <c r="W42" s="78"/>
     </row>
-    <row r="43" spans="1:23" ht="16.5">
+    <row r="43" spans="1:23" ht="16" x14ac:dyDescent="0.15">
       <c r="A43" s="59"/>
       <c r="B43" s="59"/>
       <c r="C43" s="59"/>
@@ -2872,7 +2892,7 @@
       <c r="V43" s="79"/>
       <c r="W43" s="78"/>
     </row>
-    <row r="44" spans="1:23" ht="16.5">
+    <row r="44" spans="1:23" ht="16" x14ac:dyDescent="0.15">
       <c r="A44" s="59"/>
       <c r="B44" s="59"/>
       <c r="C44" s="59"/>
@@ -2897,7 +2917,7 @@
       <c r="V44" s="79"/>
       <c r="W44" s="78"/>
     </row>
-    <row r="45" spans="1:23" ht="16.5">
+    <row r="45" spans="1:23" ht="16" x14ac:dyDescent="0.15">
       <c r="A45" s="59"/>
       <c r="B45" s="59"/>
       <c r="C45" s="59"/>
@@ -2922,7 +2942,7 @@
       <c r="V45" s="67"/>
       <c r="W45" s="68"/>
     </row>
-    <row r="46" spans="1:23" ht="16.5">
+    <row r="46" spans="1:23" ht="16" x14ac:dyDescent="0.15">
       <c r="A46" s="59"/>
       <c r="B46" s="59"/>
       <c r="C46" s="59"/>
@@ -2947,7 +2967,7 @@
       <c r="V46" s="67"/>
       <c r="W46" s="68"/>
     </row>
-    <row r="47" spans="1:23" ht="16.5">
+    <row r="47" spans="1:23" ht="16" x14ac:dyDescent="0.15">
       <c r="A47" s="59"/>
       <c r="B47" s="59"/>
       <c r="C47" s="59"/>
@@ -2972,7 +2992,7 @@
       <c r="V47" s="67"/>
       <c r="W47" s="68"/>
     </row>
-    <row r="48" spans="1:23" ht="16.5">
+    <row r="48" spans="1:23" ht="16" x14ac:dyDescent="0.15">
       <c r="A48" s="59"/>
       <c r="B48" s="59"/>
       <c r="C48" s="59"/>
@@ -2997,7 +3017,7 @@
       <c r="V48" s="67"/>
       <c r="W48" s="68"/>
     </row>
-    <row r="49" spans="1:23" ht="16.5">
+    <row r="49" spans="1:23" ht="16" x14ac:dyDescent="0.15">
       <c r="A49" s="59"/>
       <c r="B49" s="59"/>
       <c r="C49" s="59"/>
@@ -3022,7 +3042,7 @@
       <c r="V49" s="67"/>
       <c r="W49" s="68"/>
     </row>
-    <row r="50" spans="1:23" ht="16.5">
+    <row r="50" spans="1:23" ht="16" x14ac:dyDescent="0.15">
       <c r="A50" s="59"/>
       <c r="B50" s="59"/>
       <c r="C50" s="59"/>
@@ -3047,7 +3067,7 @@
       <c r="V50" s="67"/>
       <c r="W50" s="68"/>
     </row>
-    <row r="51" spans="1:23" ht="16.5">
+    <row r="51" spans="1:23" ht="16" x14ac:dyDescent="0.15">
       <c r="A51" s="59"/>
       <c r="B51" s="59"/>
       <c r="C51" s="59"/>
@@ -3072,7 +3092,7 @@
       <c r="V51" s="67"/>
       <c r="W51" s="68"/>
     </row>
-    <row r="52" spans="1:23" ht="16.5">
+    <row r="52" spans="1:23" ht="16" x14ac:dyDescent="0.15">
       <c r="A52" s="67"/>
       <c r="B52" s="67"/>
       <c r="C52" s="67"/>
@@ -3097,7 +3117,7 @@
       <c r="V52" s="67"/>
       <c r="W52" s="68"/>
     </row>
-    <row r="53" spans="1:23" ht="16.5">
+    <row r="53" spans="1:23" ht="16" x14ac:dyDescent="0.15">
       <c r="A53" s="67"/>
       <c r="B53" s="67"/>
       <c r="C53" s="67"/>
@@ -3122,7 +3142,7 @@
       <c r="V53" s="67"/>
       <c r="W53" s="68"/>
     </row>
-    <row r="54" spans="1:23" ht="16.5">
+    <row r="54" spans="1:23" ht="16" x14ac:dyDescent="0.15">
       <c r="A54" s="67"/>
       <c r="B54" s="67"/>
       <c r="C54" s="67"/>
@@ -3147,7 +3167,7 @@
       <c r="V54" s="67"/>
       <c r="W54" s="68"/>
     </row>
-    <row r="55" spans="1:23" ht="16.5">
+    <row r="55" spans="1:23" ht="16" x14ac:dyDescent="0.15">
       <c r="A55" s="67"/>
       <c r="B55" s="67"/>
       <c r="C55" s="67"/>
@@ -3172,7 +3192,7 @@
       <c r="V55" s="67"/>
       <c r="W55" s="68"/>
     </row>
-    <row r="56" spans="1:23" ht="16.5">
+    <row r="56" spans="1:23" ht="16" x14ac:dyDescent="0.15">
       <c r="A56" s="67"/>
       <c r="B56" s="67"/>
       <c r="C56" s="67"/>
@@ -3197,7 +3217,7 @@
       <c r="V56" s="67"/>
       <c r="W56" s="68"/>
     </row>
-    <row r="57" spans="1:23" ht="16.5">
+    <row r="57" spans="1:23" ht="16" x14ac:dyDescent="0.15">
       <c r="A57" s="67"/>
       <c r="B57" s="67"/>
       <c r="C57" s="67"/>
@@ -3222,7 +3242,7 @@
       <c r="V57" s="67"/>
       <c r="W57" s="68"/>
     </row>
-    <row r="58" spans="1:23" ht="16.5">
+    <row r="58" spans="1:23" ht="16" x14ac:dyDescent="0.15">
       <c r="A58" s="67"/>
       <c r="B58" s="67"/>
       <c r="C58" s="67"/>
@@ -3247,7 +3267,7 @@
       <c r="V58" s="67"/>
       <c r="W58" s="68"/>
     </row>
-    <row r="59" spans="1:23" ht="16.5">
+    <row r="59" spans="1:23" ht="16" x14ac:dyDescent="0.15">
       <c r="A59" s="67"/>
       <c r="B59" s="67"/>
       <c r="C59" s="67"/>
@@ -3272,7 +3292,7 @@
       <c r="V59" s="67"/>
       <c r="W59" s="68"/>
     </row>
-    <row r="60" spans="1:23" ht="16.5">
+    <row r="60" spans="1:23" ht="16" x14ac:dyDescent="0.15">
       <c r="A60" s="67"/>
       <c r="B60" s="67"/>
       <c r="C60" s="67"/>
@@ -3297,7 +3317,7 @@
       <c r="V60" s="67"/>
       <c r="W60" s="68"/>
     </row>
-    <row r="61" spans="1:23" ht="16.5">
+    <row r="61" spans="1:23" ht="16" x14ac:dyDescent="0.15">
       <c r="A61" s="67"/>
       <c r="B61" s="67"/>
       <c r="C61" s="67"/>
@@ -3322,7 +3342,7 @@
       <c r="V61" s="67"/>
       <c r="W61" s="68"/>
     </row>
-    <row r="62" spans="1:23" ht="16.5">
+    <row r="62" spans="1:23" ht="16" x14ac:dyDescent="0.15">
       <c r="A62" s="67"/>
       <c r="B62" s="67"/>
       <c r="C62" s="67"/>
@@ -3347,7 +3367,7 @@
       <c r="V62" s="67"/>
       <c r="W62" s="68"/>
     </row>
-    <row r="63" spans="1:23" ht="16.5">
+    <row r="63" spans="1:23" ht="16" x14ac:dyDescent="0.15">
       <c r="A63" s="67"/>
       <c r="B63" s="67"/>
       <c r="C63" s="67"/>
@@ -3372,7 +3392,7 @@
       <c r="V63" s="67"/>
       <c r="W63" s="68"/>
     </row>
-    <row r="64" spans="1:23" ht="16.5">
+    <row r="64" spans="1:23" ht="16" x14ac:dyDescent="0.15">
       <c r="A64" s="67"/>
       <c r="B64" s="67"/>
       <c r="C64" s="67"/>
@@ -3397,7 +3417,7 @@
       <c r="V64" s="67"/>
       <c r="W64" s="68"/>
     </row>
-    <row r="65" spans="1:23" ht="16.5">
+    <row r="65" spans="1:23" ht="16" x14ac:dyDescent="0.15">
       <c r="A65" s="67"/>
       <c r="B65" s="67"/>
       <c r="C65" s="67"/>
@@ -3422,7 +3442,7 @@
       <c r="V65" s="67"/>
       <c r="W65" s="68"/>
     </row>
-    <row r="66" spans="1:23" ht="16.5">
+    <row r="66" spans="1:23" ht="16" x14ac:dyDescent="0.15">
       <c r="A66" s="67"/>
       <c r="B66" s="67"/>
       <c r="C66" s="67"/>
@@ -3447,7 +3467,7 @@
       <c r="V66" s="67"/>
       <c r="W66" s="68"/>
     </row>
-    <row r="67" spans="1:23" ht="16.5">
+    <row r="67" spans="1:23" ht="16" x14ac:dyDescent="0.15">
       <c r="A67" s="67"/>
       <c r="B67" s="67"/>
       <c r="C67" s="67"/>
@@ -3472,7 +3492,7 @@
       <c r="V67" s="67"/>
       <c r="W67" s="68"/>
     </row>
-    <row r="68" spans="1:23" ht="16.5">
+    <row r="68" spans="1:23" ht="16" x14ac:dyDescent="0.15">
       <c r="A68" s="67"/>
       <c r="B68" s="67"/>
       <c r="C68" s="67"/>
@@ -3497,7 +3517,7 @@
       <c r="V68" s="67"/>
       <c r="W68" s="68"/>
     </row>
-    <row r="69" spans="1:23" ht="16.5">
+    <row r="69" spans="1:23" ht="16" x14ac:dyDescent="0.15">
       <c r="A69" s="67"/>
       <c r="B69" s="67"/>
       <c r="C69" s="67"/>
@@ -3522,7 +3542,7 @@
       <c r="V69" s="67"/>
       <c r="W69" s="68"/>
     </row>
-    <row r="70" spans="1:23" ht="16.5">
+    <row r="70" spans="1:23" ht="16" x14ac:dyDescent="0.15">
       <c r="A70" s="67"/>
       <c r="B70" s="67"/>
       <c r="C70" s="67"/>
@@ -3547,7 +3567,7 @@
       <c r="V70" s="67"/>
       <c r="W70" s="68"/>
     </row>
-    <row r="71" spans="1:23" ht="16.5">
+    <row r="71" spans="1:23" ht="16" x14ac:dyDescent="0.15">
       <c r="A71" s="67"/>
       <c r="B71" s="67"/>
       <c r="C71" s="67"/>
@@ -3572,7 +3592,7 @@
       <c r="V71" s="67"/>
       <c r="W71" s="68"/>
     </row>
-    <row r="72" spans="1:23" ht="16.5">
+    <row r="72" spans="1:23" ht="16" x14ac:dyDescent="0.15">
       <c r="A72" s="67"/>
       <c r="B72" s="67"/>
       <c r="C72" s="67"/>
@@ -3597,7 +3617,7 @@
       <c r="V72" s="67"/>
       <c r="W72" s="68"/>
     </row>
-    <row r="73" spans="1:23" ht="16.5">
+    <row r="73" spans="1:23" ht="16" x14ac:dyDescent="0.15">
       <c r="A73" s="67"/>
       <c r="B73" s="67"/>
       <c r="C73" s="67"/>
@@ -3622,7 +3642,7 @@
       <c r="V73" s="67"/>
       <c r="W73" s="68"/>
     </row>
-    <row r="74" spans="1:23" ht="16.5">
+    <row r="74" spans="1:23" ht="16" x14ac:dyDescent="0.15">
       <c r="A74" s="67"/>
       <c r="B74" s="67"/>
       <c r="C74" s="67"/>
@@ -3647,7 +3667,7 @@
       <c r="V74" s="67"/>
       <c r="W74" s="68"/>
     </row>
-    <row r="75" spans="1:23" ht="16.5">
+    <row r="75" spans="1:23" ht="16" x14ac:dyDescent="0.15">
       <c r="A75" s="67"/>
       <c r="B75" s="67"/>
       <c r="C75" s="67"/>
@@ -3672,7 +3692,7 @@
       <c r="V75" s="67"/>
       <c r="W75" s="68"/>
     </row>
-    <row r="76" spans="1:23" ht="16.5">
+    <row r="76" spans="1:23" ht="16" x14ac:dyDescent="0.15">
       <c r="A76" s="67"/>
       <c r="B76" s="67"/>
       <c r="C76" s="67"/>
@@ -3697,7 +3717,7 @@
       <c r="V76" s="67"/>
       <c r="W76" s="68"/>
     </row>
-    <row r="77" spans="1:23" ht="16.5">
+    <row r="77" spans="1:23" ht="16" x14ac:dyDescent="0.15">
       <c r="A77" s="67"/>
       <c r="B77" s="67"/>
       <c r="C77" s="67"/>
@@ -3722,7 +3742,7 @@
       <c r="V77" s="67"/>
       <c r="W77" s="68"/>
     </row>
-    <row r="78" spans="1:23">
+    <row r="78" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A78" s="67"/>
       <c r="B78" s="67"/>
       <c r="C78" s="67"/>
@@ -3747,7 +3767,7 @@
       <c r="V78" s="67"/>
       <c r="W78" s="68"/>
     </row>
-    <row r="79" spans="1:23">
+    <row r="79" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A79" s="67"/>
       <c r="B79" s="67"/>
       <c r="C79" s="67"/>
@@ -3772,7 +3792,7 @@
       <c r="V79" s="67"/>
       <c r="W79" s="68"/>
     </row>
-    <row r="80" spans="1:23">
+    <row r="80" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A80" s="67"/>
       <c r="B80" s="67"/>
       <c r="C80" s="67"/>
@@ -3797,7 +3817,7 @@
       <c r="V80" s="67"/>
       <c r="W80" s="68"/>
     </row>
-    <row r="81" spans="1:23">
+    <row r="81" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A81" s="67"/>
       <c r="B81" s="67"/>
       <c r="C81" s="67"/>
@@ -3822,7 +3842,7 @@
       <c r="V81" s="67"/>
       <c r="W81" s="68"/>
     </row>
-    <row r="82" spans="1:23">
+    <row r="82" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A82" s="67"/>
       <c r="B82" s="67"/>
       <c r="C82" s="67"/>
@@ -3847,7 +3867,7 @@
       <c r="V82" s="67"/>
       <c r="W82" s="68"/>
     </row>
-    <row r="83" spans="1:23">
+    <row r="83" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A83" s="67"/>
       <c r="B83" s="67"/>
       <c r="C83" s="67"/>
@@ -3872,7 +3892,7 @@
       <c r="V83" s="67"/>
       <c r="W83" s="68"/>
     </row>
-    <row r="84" spans="1:23">
+    <row r="84" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A84" s="67"/>
       <c r="B84" s="67"/>
       <c r="C84" s="67"/>
@@ -3897,7 +3917,7 @@
       <c r="V84" s="67"/>
       <c r="W84" s="68"/>
     </row>
-    <row r="85" spans="1:23">
+    <row r="85" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A85" s="67"/>
       <c r="B85" s="67"/>
       <c r="C85" s="67"/>
@@ -3922,7 +3942,7 @@
       <c r="V85" s="67"/>
       <c r="W85" s="68"/>
     </row>
-    <row r="86" spans="1:23">
+    <row r="86" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A86" s="67"/>
       <c r="B86" s="67"/>
       <c r="C86" s="67"/>
@@ -3947,7 +3967,7 @@
       <c r="V86" s="67"/>
       <c r="W86" s="68"/>
     </row>
-    <row r="87" spans="1:23">
+    <row r="87" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A87" s="67"/>
       <c r="B87" s="67"/>
       <c r="C87" s="67"/>
@@ -3972,7 +3992,7 @@
       <c r="V87" s="67"/>
       <c r="W87" s="68"/>
     </row>
-    <row r="88" spans="1:23">
+    <row r="88" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A88" s="67"/>
       <c r="B88" s="67"/>
       <c r="C88" s="67"/>
@@ -3997,7 +4017,7 @@
       <c r="V88" s="67"/>
       <c r="W88" s="68"/>
     </row>
-    <row r="89" spans="1:23">
+    <row r="89" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A89" s="67"/>
       <c r="B89" s="67"/>
       <c r="C89" s="67"/>
@@ -4022,7 +4042,7 @@
       <c r="V89" s="67"/>
       <c r="W89" s="68"/>
     </row>
-    <row r="90" spans="1:23">
+    <row r="90" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A90" s="67"/>
       <c r="B90" s="67"/>
       <c r="C90" s="67"/>
@@ -4047,7 +4067,7 @@
       <c r="V90" s="67"/>
       <c r="W90" s="68"/>
     </row>
-    <row r="91" spans="1:23">
+    <row r="91" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A91" s="67"/>
       <c r="B91" s="67"/>
       <c r="C91" s="67"/>
@@ -4072,7 +4092,7 @@
       <c r="V91" s="67"/>
       <c r="W91" s="68"/>
     </row>
-    <row r="92" spans="1:23">
+    <row r="92" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A92" s="67"/>
       <c r="B92" s="67"/>
       <c r="C92" s="67"/>
@@ -4097,7 +4117,7 @@
       <c r="V92" s="67"/>
       <c r="W92" s="68"/>
     </row>
-    <row r="93" spans="1:23">
+    <row r="93" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A93" s="67"/>
       <c r="B93" s="67"/>
       <c r="C93" s="67"/>
@@ -4122,7 +4142,7 @@
       <c r="V93" s="67"/>
       <c r="W93" s="68"/>
     </row>
-    <row r="94" spans="1:23">
+    <row r="94" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A94" s="67"/>
       <c r="B94" s="67"/>
       <c r="C94" s="67"/>
@@ -4147,7 +4167,7 @@
       <c r="V94" s="67"/>
       <c r="W94" s="68"/>
     </row>
-    <row r="95" spans="1:23">
+    <row r="95" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A95" s="67"/>
       <c r="B95" s="67"/>
       <c r="C95" s="67"/>
@@ -4172,7 +4192,7 @@
       <c r="V95" s="67"/>
       <c r="W95" s="68"/>
     </row>
-    <row r="96" spans="1:23">
+    <row r="96" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A96" s="67"/>
       <c r="B96" s="67"/>
       <c r="C96" s="67"/>
@@ -4197,7 +4217,7 @@
       <c r="V96" s="67"/>
       <c r="W96" s="68"/>
     </row>
-    <row r="97" spans="1:23">
+    <row r="97" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A97" s="67"/>
       <c r="B97" s="67"/>
       <c r="C97" s="67"/>
@@ -4222,7 +4242,7 @@
       <c r="V97" s="67"/>
       <c r="W97" s="68"/>
     </row>
-    <row r="98" spans="1:23">
+    <row r="98" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A98" s="67"/>
       <c r="B98" s="67"/>
       <c r="C98" s="67"/>
@@ -4247,7 +4267,7 @@
       <c r="V98" s="67"/>
       <c r="W98" s="68"/>
     </row>
-    <row r="99" spans="1:23">
+    <row r="99" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A99" s="67"/>
       <c r="B99" s="67"/>
       <c r="C99" s="67"/>
@@ -4272,7 +4292,7 @@
       <c r="V99" s="67"/>
       <c r="W99" s="68"/>
     </row>
-    <row r="100" spans="1:23">
+    <row r="100" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A100" s="67"/>
       <c r="B100" s="67"/>
       <c r="C100" s="67"/>
@@ -4297,7 +4317,7 @@
       <c r="V100" s="67"/>
       <c r="W100" s="68"/>
     </row>
-    <row r="101" spans="1:23">
+    <row r="101" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A101" s="67"/>
       <c r="B101" s="67"/>
       <c r="C101" s="67"/>
@@ -4322,7 +4342,7 @@
       <c r="V101" s="67"/>
       <c r="W101" s="68"/>
     </row>
-    <row r="102" spans="1:23">
+    <row r="102" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A102" s="67"/>
       <c r="B102" s="67"/>
       <c r="C102" s="67"/>
@@ -4347,7 +4367,7 @@
       <c r="V102" s="67"/>
       <c r="W102" s="68"/>
     </row>
-    <row r="103" spans="1:23">
+    <row r="103" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A103" s="67"/>
       <c r="B103" s="67"/>
       <c r="C103" s="67"/>
@@ -4372,7 +4392,7 @@
       <c r="V103" s="67"/>
       <c r="W103" s="68"/>
     </row>
-    <row r="104" spans="1:23">
+    <row r="104" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A104" s="67"/>
       <c r="B104" s="67"/>
       <c r="C104" s="67"/>
@@ -4397,7 +4417,7 @@
       <c r="V104" s="67"/>
       <c r="W104" s="68"/>
     </row>
-    <row r="105" spans="1:23">
+    <row r="105" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A105" s="67"/>
       <c r="B105" s="67"/>
       <c r="C105" s="67"/>
@@ -4422,7 +4442,7 @@
       <c r="V105" s="67"/>
       <c r="W105" s="68"/>
     </row>
-    <row r="106" spans="1:23">
+    <row r="106" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A106" s="67"/>
       <c r="B106" s="67"/>
       <c r="C106" s="67"/>
@@ -4447,7 +4467,7 @@
       <c r="V106" s="67"/>
       <c r="W106" s="68"/>
     </row>
-    <row r="107" spans="1:23">
+    <row r="107" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A107" s="67"/>
       <c r="B107" s="67"/>
       <c r="C107" s="67"/>
@@ -4472,7 +4492,7 @@
       <c r="V107" s="67"/>
       <c r="W107" s="68"/>
     </row>
-    <row r="108" spans="1:23">
+    <row r="108" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A108" s="67"/>
       <c r="B108" s="67"/>
       <c r="C108" s="67"/>
@@ -4497,7 +4517,7 @@
       <c r="V108" s="67"/>
       <c r="W108" s="68"/>
     </row>
-    <row r="109" spans="1:23">
+    <row r="109" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A109" s="67"/>
       <c r="B109" s="67"/>
       <c r="C109" s="67"/>
@@ -4522,7 +4542,7 @@
       <c r="V109" s="67"/>
       <c r="W109" s="68"/>
     </row>
-    <row r="110" spans="1:23">
+    <row r="110" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A110" s="67"/>
       <c r="B110" s="67"/>
       <c r="C110" s="67"/>
@@ -4547,7 +4567,7 @@
       <c r="V110" s="67"/>
       <c r="W110" s="68"/>
     </row>
-    <row r="111" spans="1:23">
+    <row r="111" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A111" s="67"/>
       <c r="B111" s="67"/>
       <c r="C111" s="67"/>
@@ -4572,7 +4592,7 @@
       <c r="V111" s="67"/>
       <c r="W111" s="68"/>
     </row>
-    <row r="112" spans="1:23">
+    <row r="112" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A112" s="67"/>
       <c r="B112" s="67"/>
       <c r="C112" s="67"/>
@@ -4597,7 +4617,7 @@
       <c r="V112" s="67"/>
       <c r="W112" s="68"/>
     </row>
-    <row r="113" spans="1:23">
+    <row r="113" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A113" s="67"/>
       <c r="B113" s="67"/>
       <c r="C113" s="67"/>
@@ -4622,7 +4642,7 @@
       <c r="V113" s="67"/>
       <c r="W113" s="68"/>
     </row>
-    <row r="114" spans="1:23">
+    <row r="114" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A114" s="67"/>
       <c r="B114" s="67"/>
       <c r="C114" s="67"/>
@@ -4647,7 +4667,7 @@
       <c r="V114" s="67"/>
       <c r="W114" s="68"/>
     </row>
-    <row r="115" spans="1:23">
+    <row r="115" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A115" s="67"/>
       <c r="B115" s="67"/>
       <c r="C115" s="67"/>
@@ -4672,7 +4692,7 @@
       <c r="V115" s="67"/>
       <c r="W115" s="68"/>
     </row>
-    <row r="116" spans="1:23">
+    <row r="116" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A116" s="67"/>
       <c r="B116" s="67"/>
       <c r="C116" s="67"/>
@@ -4697,7 +4717,7 @@
       <c r="V116" s="67"/>
       <c r="W116" s="68"/>
     </row>
-    <row r="117" spans="1:23">
+    <row r="117" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A117" s="67"/>
       <c r="B117" s="67"/>
       <c r="C117" s="67"/>
@@ -4722,7 +4742,7 @@
       <c r="V117" s="67"/>
       <c r="W117" s="68"/>
     </row>
-    <row r="118" spans="1:23">
+    <row r="118" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A118" s="67"/>
       <c r="B118" s="67"/>
       <c r="C118" s="67"/>
@@ -4747,7 +4767,7 @@
       <c r="V118" s="67"/>
       <c r="W118" s="68"/>
     </row>
-    <row r="119" spans="1:23">
+    <row r="119" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A119" s="67"/>
       <c r="B119" s="67"/>
       <c r="C119" s="67"/>
@@ -4772,7 +4792,7 @@
       <c r="V119" s="67"/>
       <c r="W119" s="68"/>
     </row>
-    <row r="120" spans="1:23">
+    <row r="120" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A120" s="67"/>
       <c r="B120" s="67"/>
       <c r="C120" s="67"/>
@@ -4797,7 +4817,7 @@
       <c r="V120" s="67"/>
       <c r="W120" s="68"/>
     </row>
-    <row r="121" spans="1:23">
+    <row r="121" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A121" s="67"/>
       <c r="B121" s="67"/>
       <c r="C121" s="67"/>
@@ -4822,7 +4842,7 @@
       <c r="V121" s="67"/>
       <c r="W121" s="68"/>
     </row>
-    <row r="122" spans="1:23">
+    <row r="122" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A122" s="67"/>
       <c r="B122" s="67"/>
       <c r="C122" s="67"/>
@@ -4847,7 +4867,7 @@
       <c r="V122" s="67"/>
       <c r="W122" s="68"/>
     </row>
-    <row r="123" spans="1:23">
+    <row r="123" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A123" s="67"/>
       <c r="B123" s="67"/>
       <c r="C123" s="67"/>
@@ -4872,7 +4892,7 @@
       <c r="V123" s="67"/>
       <c r="W123" s="68"/>
     </row>
-    <row r="124" spans="1:23">
+    <row r="124" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A124" s="67"/>
       <c r="B124" s="67"/>
       <c r="C124" s="67"/>
@@ -4897,7 +4917,7 @@
       <c r="V124" s="67"/>
       <c r="W124" s="68"/>
     </row>
-    <row r="125" spans="1:23">
+    <row r="125" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A125" s="67"/>
       <c r="B125" s="67"/>
       <c r="C125" s="67"/>
@@ -4922,7 +4942,7 @@
       <c r="V125" s="67"/>
       <c r="W125" s="68"/>
     </row>
-    <row r="126" spans="1:23">
+    <row r="126" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A126" s="67"/>
       <c r="B126" s="67"/>
       <c r="C126" s="67"/>
@@ -4947,7 +4967,7 @@
       <c r="V126" s="67"/>
       <c r="W126" s="68"/>
     </row>
-    <row r="127" spans="1:23">
+    <row r="127" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A127" s="67"/>
       <c r="B127" s="67"/>
       <c r="C127" s="67"/>
@@ -4972,7 +4992,7 @@
       <c r="V127" s="67"/>
       <c r="W127" s="68"/>
     </row>
-    <row r="128" spans="1:23">
+    <row r="128" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A128" s="67"/>
       <c r="B128" s="67"/>
       <c r="C128" s="67"/>
@@ -4997,7 +5017,7 @@
       <c r="V128" s="67"/>
       <c r="W128" s="68"/>
     </row>
-    <row r="129" spans="1:23">
+    <row r="129" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A129" s="67"/>
       <c r="B129" s="67"/>
       <c r="C129" s="67"/>
@@ -5022,7 +5042,7 @@
       <c r="V129" s="67"/>
       <c r="W129" s="68"/>
     </row>
-    <row r="130" spans="1:23">
+    <row r="130" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A130" s="67"/>
       <c r="B130" s="67"/>
       <c r="C130" s="67"/>
@@ -5047,7 +5067,7 @@
       <c r="V130" s="67"/>
       <c r="W130" s="68"/>
     </row>
-    <row r="131" spans="1:23">
+    <row r="131" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A131" s="67"/>
       <c r="B131" s="67"/>
       <c r="C131" s="67"/>
@@ -5072,7 +5092,7 @@
       <c r="V131" s="67"/>
       <c r="W131" s="68"/>
     </row>
-    <row r="132" spans="1:23">
+    <row r="132" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A132" s="67"/>
       <c r="B132" s="67"/>
       <c r="C132" s="67"/>
@@ -5097,7 +5117,7 @@
       <c r="V132" s="67"/>
       <c r="W132" s="68"/>
     </row>
-    <row r="133" spans="1:23">
+    <row r="133" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A133" s="67"/>
       <c r="B133" s="67"/>
       <c r="C133" s="67"/>
@@ -5122,7 +5142,7 @@
       <c r="V133" s="67"/>
       <c r="W133" s="68"/>
     </row>
-    <row r="134" spans="1:23">
+    <row r="134" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A134" s="67"/>
       <c r="B134" s="67"/>
       <c r="C134" s="67"/>
@@ -5143,7 +5163,7 @@
       <c r="R134" s="68"/>
       <c r="W134" s="68"/>
     </row>
-    <row r="135" spans="1:23">
+    <row r="135" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A135" s="67"/>
       <c r="B135" s="67"/>
       <c r="C135" s="67"/>
@@ -5164,7 +5184,7 @@
       <c r="R135" s="68"/>
       <c r="W135" s="68"/>
     </row>
-    <row r="136" spans="1:23">
+    <row r="136" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A136" s="67"/>
       <c r="B136" s="67"/>
       <c r="C136" s="67"/>
@@ -5185,7 +5205,7 @@
       <c r="R136" s="68"/>
       <c r="W136" s="68"/>
     </row>
-    <row r="137" spans="1:23">
+    <row r="137" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A137" s="67"/>
       <c r="B137" s="67"/>
       <c r="C137" s="67"/>
@@ -5206,7 +5226,7 @@
       <c r="R137" s="68"/>
       <c r="W137" s="68"/>
     </row>
-    <row r="138" spans="1:23">
+    <row r="138" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A138" s="67"/>
       <c r="B138" s="67"/>
       <c r="C138" s="67"/>
@@ -5227,7 +5247,7 @@
       <c r="R138" s="68"/>
       <c r="W138" s="68"/>
     </row>
-    <row r="139" spans="1:23">
+    <row r="139" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A139" s="67"/>
       <c r="B139" s="67"/>
       <c r="C139" s="67"/>
@@ -5248,7 +5268,7 @@
       <c r="R139" s="68"/>
       <c r="W139" s="68"/>
     </row>
-    <row r="140" spans="1:23">
+    <row r="140" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A140" s="67"/>
       <c r="B140" s="67"/>
       <c r="C140" s="67"/>
@@ -5269,7 +5289,7 @@
       <c r="R140" s="68"/>
       <c r="W140" s="68"/>
     </row>
-    <row r="141" spans="1:23">
+    <row r="141" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A141" s="67"/>
       <c r="B141" s="67"/>
       <c r="C141" s="67"/>
@@ -5290,7 +5310,7 @@
       <c r="R141" s="68"/>
       <c r="W141" s="68"/>
     </row>
-    <row r="142" spans="1:23">
+    <row r="142" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A142" s="67"/>
       <c r="B142" s="67"/>
       <c r="C142" s="67"/>
@@ -5311,7 +5331,7 @@
       <c r="R142" s="68"/>
       <c r="W142" s="68"/>
     </row>
-    <row r="143" spans="1:23">
+    <row r="143" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A143" s="67"/>
       <c r="B143" s="67"/>
       <c r="C143" s="67"/>
@@ -5332,7 +5352,7 @@
       <c r="R143" s="68"/>
       <c r="W143" s="68"/>
     </row>
-    <row r="144" spans="1:23">
+    <row r="144" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A144" s="67"/>
       <c r="B144" s="67"/>
       <c r="C144" s="67"/>
@@ -5353,7 +5373,7 @@
       <c r="R144" s="68"/>
       <c r="W144" s="68"/>
     </row>
-    <row r="145" spans="1:23">
+    <row r="145" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A145" s="67"/>
       <c r="B145" s="67"/>
       <c r="C145" s="67"/>
@@ -5374,7 +5394,7 @@
       <c r="R145" s="68"/>
       <c r="W145" s="68"/>
     </row>
-    <row r="146" spans="1:23">
+    <row r="146" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A146" s="67"/>
       <c r="B146" s="67"/>
       <c r="C146" s="67"/>
@@ -5395,7 +5415,7 @@
       <c r="R146" s="68"/>
       <c r="W146" s="68"/>
     </row>
-    <row r="147" spans="1:23">
+    <row r="147" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A147" s="67"/>
       <c r="B147" s="67"/>
       <c r="C147" s="67"/>
@@ -5416,7 +5436,7 @@
       <c r="R147" s="68"/>
       <c r="W147" s="68"/>
     </row>
-    <row r="148" spans="1:23">
+    <row r="148" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A148" s="67"/>
       <c r="B148" s="67"/>
       <c r="C148" s="67"/>
@@ -5437,7 +5457,7 @@
       <c r="R148" s="68"/>
       <c r="W148" s="68"/>
     </row>
-    <row r="149" spans="1:23">
+    <row r="149" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A149" s="67"/>
       <c r="B149" s="67"/>
       <c r="C149" s="67"/>
@@ -5458,7 +5478,7 @@
       <c r="R149" s="68"/>
       <c r="W149" s="68"/>
     </row>
-    <row r="150" spans="1:23">
+    <row r="150" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A150" s="67"/>
       <c r="B150" s="67"/>
       <c r="C150" s="67"/>
@@ -5479,7 +5499,7 @@
       <c r="R150" s="68"/>
       <c r="W150" s="68"/>
     </row>
-    <row r="151" spans="1:23">
+    <row r="151" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A151" s="67"/>
       <c r="B151" s="67"/>
       <c r="C151" s="67"/>
@@ -5500,7 +5520,7 @@
       <c r="R151" s="68"/>
       <c r="W151" s="68"/>
     </row>
-    <row r="152" spans="1:23">
+    <row r="152" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A152" s="67"/>
       <c r="B152" s="67"/>
       <c r="C152" s="67"/>
@@ -5521,7 +5541,7 @@
       <c r="R152" s="68"/>
       <c r="W152" s="68"/>
     </row>
-    <row r="153" spans="1:23">
+    <row r="153" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A153" s="67"/>
       <c r="B153" s="67"/>
       <c r="C153" s="67"/>
@@ -5542,7 +5562,7 @@
       <c r="R153" s="68"/>
       <c r="W153" s="68"/>
     </row>
-    <row r="154" spans="1:23">
+    <row r="154" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A154" s="67"/>
       <c r="B154" s="67"/>
       <c r="C154" s="67"/>
@@ -5563,7 +5583,7 @@
       <c r="R154" s="68"/>
       <c r="W154" s="68"/>
     </row>
-    <row r="155" spans="1:23">
+    <row r="155" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A155" s="67"/>
       <c r="B155" s="67"/>
       <c r="C155" s="67"/>
@@ -5584,7 +5604,7 @@
       <c r="R155" s="68"/>
       <c r="W155" s="68"/>
     </row>
-    <row r="156" spans="1:23">
+    <row r="156" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A156" s="67"/>
       <c r="B156" s="67"/>
       <c r="C156" s="67"/>
@@ -5605,7 +5625,7 @@
       <c r="R156" s="68"/>
       <c r="W156" s="68"/>
     </row>
-    <row r="157" spans="1:23">
+    <row r="157" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A157" s="67"/>
       <c r="B157" s="67"/>
       <c r="C157" s="67"/>
@@ -5626,7 +5646,7 @@
       <c r="R157" s="68"/>
       <c r="W157" s="68"/>
     </row>
-    <row r="158" spans="1:23">
+    <row r="158" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A158" s="67"/>
       <c r="B158" s="67"/>
       <c r="C158" s="67"/>
@@ -5647,7 +5667,7 @@
       <c r="R158" s="68"/>
       <c r="W158" s="68"/>
     </row>
-    <row r="159" spans="1:23">
+    <row r="159" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A159" s="67"/>
       <c r="B159" s="67"/>
       <c r="C159" s="67"/>
@@ -5668,7 +5688,7 @@
       <c r="R159" s="68"/>
       <c r="W159" s="68"/>
     </row>
-    <row r="160" spans="1:23">
+    <row r="160" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A160" s="67"/>
       <c r="B160" s="67"/>
       <c r="C160" s="67"/>
@@ -5689,7 +5709,7 @@
       <c r="R160" s="68"/>
       <c r="W160" s="68"/>
     </row>
-    <row r="161" spans="1:23">
+    <row r="161" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A161" s="67"/>
       <c r="B161" s="67"/>
       <c r="C161" s="67"/>
@@ -5710,7 +5730,7 @@
       <c r="R161" s="68"/>
       <c r="W161" s="68"/>
     </row>
-    <row r="162" spans="1:23">
+    <row r="162" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A162" s="67"/>
       <c r="B162" s="67"/>
       <c r="C162" s="67"/>
@@ -5731,7 +5751,7 @@
       <c r="R162" s="68"/>
       <c r="W162" s="68"/>
     </row>
-    <row r="163" spans="1:23">
+    <row r="163" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A163" s="67"/>
       <c r="B163" s="67"/>
       <c r="C163" s="67"/>
@@ -5752,7 +5772,7 @@
       <c r="R163" s="68"/>
       <c r="W163" s="68"/>
     </row>
-    <row r="164" spans="1:23">
+    <row r="164" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A164" s="67"/>
       <c r="B164" s="67"/>
       <c r="C164" s="67"/>
@@ -5773,7 +5793,7 @@
       <c r="R164" s="68"/>
       <c r="W164" s="68"/>
     </row>
-    <row r="165" spans="1:23">
+    <row r="165" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A165" s="67"/>
       <c r="B165" s="67"/>
       <c r="C165" s="67"/>
@@ -5794,7 +5814,7 @@
       <c r="R165" s="68"/>
       <c r="W165" s="68"/>
     </row>
-    <row r="166" spans="1:23">
+    <row r="166" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A166" s="67"/>
       <c r="B166" s="67"/>
       <c r="C166" s="67"/>
@@ -5815,7 +5835,7 @@
       <c r="R166" s="68"/>
       <c r="W166" s="68"/>
     </row>
-    <row r="167" spans="1:23">
+    <row r="167" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A167" s="67"/>
       <c r="B167" s="67"/>
       <c r="C167" s="67"/>
@@ -5836,7 +5856,7 @@
       <c r="R167" s="68"/>
       <c r="W167" s="68"/>
     </row>
-    <row r="168" spans="1:23">
+    <row r="168" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A168" s="67"/>
       <c r="B168" s="67"/>
       <c r="C168" s="67"/>
@@ -5894,34 +5914,34 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H31" sqref="H31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="26.125" defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="26.1640625" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="2" width="8" customWidth="1"/>
-    <col min="3" max="3" width="21.625" customWidth="1"/>
-    <col min="4" max="4" width="6.375" customWidth="1"/>
-    <col min="5" max="5" width="18.625" customWidth="1"/>
-    <col min="6" max="7" width="7.125" customWidth="1"/>
+    <col min="3" max="3" width="21.6640625" customWidth="1"/>
+    <col min="4" max="4" width="6.33203125" customWidth="1"/>
+    <col min="5" max="5" width="18.6640625" customWidth="1"/>
+    <col min="6" max="7" width="7.1640625" customWidth="1"/>
     <col min="8" max="8" width="8" customWidth="1"/>
-    <col min="9" max="9" width="7.125" customWidth="1"/>
-    <col min="10" max="10" width="44.375" customWidth="1"/>
+    <col min="9" max="9" width="7.1640625" customWidth="1"/>
+    <col min="10" max="10" width="44.33203125" customWidth="1"/>
     <col min="11" max="11" width="25.5" customWidth="1"/>
     <col min="12" max="12" width="23.5" customWidth="1"/>
-    <col min="13" max="13" width="54.875" customWidth="1"/>
+    <col min="13" max="13" width="54.83203125" customWidth="1"/>
     <col min="14" max="14" width="8" customWidth="1"/>
-    <col min="15" max="15" width="15.125" customWidth="1"/>
-    <col min="16" max="16" width="14.375" customWidth="1"/>
-    <col min="17" max="17" width="31.125" customWidth="1"/>
-    <col min="18" max="18" width="4.625" customWidth="1"/>
+    <col min="15" max="15" width="15.1640625" customWidth="1"/>
+    <col min="16" max="16" width="14.33203125" customWidth="1"/>
+    <col min="17" max="17" width="31.1640625" customWidth="1"/>
+    <col min="18" max="18" width="4.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="36" customHeight="1">
+    <row r="1" spans="1:18" ht="36" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="31" t="s">
         <v>25</v>
       </c>
@@ -5977,7 +5997,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:18" s="30" customFormat="1" ht="77.25" customHeight="1">
+    <row r="2" spans="1:18" s="30" customFormat="1" ht="77.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="85"/>
       <c r="B2" s="33"/>
       <c r="C2" s="33"/>
@@ -5997,7 +6017,7 @@
       <c r="Q2" s="52"/>
       <c r="R2" s="52"/>
     </row>
-    <row r="3" spans="1:18" ht="30" customHeight="1">
+    <row r="3" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="39"/>
       <c r="B3" s="33"/>
       <c r="C3" s="33"/>
@@ -6017,7 +6037,7 @@
       <c r="Q3" s="52"/>
       <c r="R3" s="52"/>
     </row>
-    <row r="4" spans="1:18" ht="30" customHeight="1">
+    <row r="4" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="39"/>
       <c r="B4" s="33"/>
       <c r="C4" s="33"/>
@@ -6044,41 +6064,41 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="12.25" customWidth="1"/>
-    <col min="3" max="3" width="15.25" customWidth="1"/>
-    <col min="4" max="4" width="23.25" customWidth="1"/>
-    <col min="5" max="5" width="25.625" customWidth="1"/>
-    <col min="6" max="6" width="19.625" customWidth="1"/>
-    <col min="7" max="7" width="11.375" customWidth="1"/>
-    <col min="8" max="8" width="12.375" customWidth="1"/>
-    <col min="9" max="9" width="10.375" customWidth="1"/>
+    <col min="2" max="2" width="12.1640625" customWidth="1"/>
+    <col min="3" max="3" width="15.1640625" customWidth="1"/>
+    <col min="4" max="4" width="23.1640625" customWidth="1"/>
+    <col min="5" max="5" width="25.6640625" customWidth="1"/>
+    <col min="6" max="6" width="19.6640625" customWidth="1"/>
+    <col min="7" max="7" width="11.33203125" customWidth="1"/>
+    <col min="8" max="8" width="12.33203125" customWidth="1"/>
+    <col min="9" max="9" width="10.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="20.25">
-      <c r="A1" s="94" t="s">
+    <row r="1" spans="1:11" ht="17" x14ac:dyDescent="0.15">
+      <c r="A1" s="95" t="s">
         <v>41</v>
       </c>
-      <c r="B1" s="95"/>
-      <c r="C1" s="95"/>
-      <c r="D1" s="95"/>
-      <c r="E1" s="95"/>
-      <c r="F1" s="95"/>
-      <c r="G1" s="95"/>
-      <c r="H1" s="95"/>
-      <c r="I1" s="95"/>
-      <c r="J1" s="95"/>
-      <c r="K1" s="95"/>
-    </row>
-    <row r="2" spans="1:11" ht="17.25">
+      <c r="B1" s="96"/>
+      <c r="C1" s="96"/>
+      <c r="D1" s="96"/>
+      <c r="E1" s="96"/>
+      <c r="F1" s="96"/>
+      <c r="G1" s="96"/>
+      <c r="H1" s="96"/>
+      <c r="I1" s="96"/>
+      <c r="J1" s="96"/>
+      <c r="K1" s="96"/>
+    </row>
+    <row r="2" spans="1:11" ht="15" x14ac:dyDescent="0.15">
       <c r="A2" s="18" t="s">
         <v>42</v>
       </c>
@@ -6113,9 +6133,9 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="17.25">
-      <c r="A3" s="96"/>
-      <c r="B3" s="96"/>
+    <row r="3" spans="1:11" ht="15" x14ac:dyDescent="0.15">
+      <c r="A3" s="97"/>
+      <c r="B3" s="97"/>
       <c r="C3" s="20"/>
       <c r="D3" s="21"/>
       <c r="E3" s="21"/>
@@ -6126,9 +6146,9 @@
       <c r="J3" s="27"/>
       <c r="K3" s="28"/>
     </row>
-    <row r="4" spans="1:11" ht="17.25">
-      <c r="A4" s="97"/>
-      <c r="B4" s="98"/>
+    <row r="4" spans="1:11" ht="15" x14ac:dyDescent="0.15">
+      <c r="A4" s="98"/>
+      <c r="B4" s="99"/>
       <c r="C4" s="20"/>
       <c r="D4" s="21"/>
       <c r="E4" s="21"/>
@@ -6139,9 +6159,9 @@
       <c r="J4" s="27"/>
       <c r="K4" s="28"/>
     </row>
-    <row r="5" spans="1:11" ht="17.25">
-      <c r="A5" s="96"/>
-      <c r="B5" s="96"/>
+    <row r="5" spans="1:11" ht="15" x14ac:dyDescent="0.15">
+      <c r="A5" s="97"/>
+      <c r="B5" s="97"/>
       <c r="C5" s="20"/>
       <c r="D5" s="21"/>
       <c r="E5" s="21"/>
@@ -6152,9 +6172,9 @@
       <c r="J5" s="27"/>
       <c r="K5" s="28"/>
     </row>
-    <row r="6" spans="1:11" ht="17.25">
-      <c r="A6" s="98"/>
-      <c r="B6" s="98"/>
+    <row r="6" spans="1:11" ht="15" x14ac:dyDescent="0.15">
+      <c r="A6" s="99"/>
+      <c r="B6" s="99"/>
       <c r="C6" s="20"/>
       <c r="D6" s="21"/>
       <c r="E6" s="21"/>
@@ -6165,9 +6185,9 @@
       <c r="J6" s="27"/>
       <c r="K6" s="28"/>
     </row>
-    <row r="7" spans="1:11" ht="17.25">
-      <c r="A7" s="98"/>
-      <c r="B7" s="98"/>
+    <row r="7" spans="1:11" ht="15" x14ac:dyDescent="0.15">
+      <c r="A7" s="99"/>
+      <c r="B7" s="99"/>
       <c r="C7" s="20"/>
       <c r="D7" s="21"/>
       <c r="E7" s="21"/>
@@ -6178,9 +6198,9 @@
       <c r="J7" s="27"/>
       <c r="K7" s="28"/>
     </row>
-    <row r="8" spans="1:11" ht="17.25">
-      <c r="A8" s="98"/>
-      <c r="B8" s="98"/>
+    <row r="8" spans="1:11" ht="15" x14ac:dyDescent="0.15">
+      <c r="A8" s="99"/>
+      <c r="B8" s="99"/>
       <c r="C8" s="20"/>
       <c r="D8" s="21"/>
       <c r="E8" s="21"/>
@@ -6191,9 +6211,9 @@
       <c r="J8" s="27"/>
       <c r="K8" s="28"/>
     </row>
-    <row r="9" spans="1:11" ht="17.25">
-      <c r="A9" s="98"/>
-      <c r="B9" s="98"/>
+    <row r="9" spans="1:11" ht="15" x14ac:dyDescent="0.15">
+      <c r="A9" s="99"/>
+      <c r="B9" s="99"/>
       <c r="C9" s="20"/>
       <c r="D9" s="21"/>
       <c r="E9" s="21"/>
@@ -6204,9 +6224,9 @@
       <c r="J9" s="27"/>
       <c r="K9" s="28"/>
     </row>
-    <row r="10" spans="1:11" ht="17.25">
-      <c r="A10" s="97"/>
-      <c r="B10" s="97"/>
+    <row r="10" spans="1:11" ht="15" x14ac:dyDescent="0.15">
+      <c r="A10" s="98"/>
+      <c r="B10" s="98"/>
       <c r="C10" s="20"/>
       <c r="D10" s="21"/>
       <c r="E10" s="21"/>
@@ -6217,7 +6237,7 @@
       <c r="J10" s="27"/>
       <c r="K10" s="28"/>
     </row>
-    <row r="11" spans="1:11" ht="16.5">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A11" s="24"/>
       <c r="B11" s="24"/>
       <c r="C11" s="20"/>
@@ -6244,61 +6264,61 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G37" sqref="G37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="39.5" defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="39.5" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="4.75" customWidth="1"/>
-    <col min="2" max="3" width="6.375" customWidth="1"/>
+    <col min="1" max="1" width="4.6640625" customWidth="1"/>
+    <col min="2" max="3" width="6.33203125" customWidth="1"/>
     <col min="4" max="4" width="11.5" customWidth="1"/>
-    <col min="5" max="5" width="32.75" customWidth="1"/>
-    <col min="6" max="6" width="4.75" customWidth="1"/>
-    <col min="7" max="7" width="57.25" customWidth="1"/>
-    <col min="8" max="8" width="16.75" customWidth="1"/>
+    <col min="5" max="5" width="32.6640625" customWidth="1"/>
+    <col min="6" max="6" width="4.6640625" customWidth="1"/>
+    <col min="7" max="7" width="57.1640625" customWidth="1"/>
+    <col min="8" max="8" width="16.6640625" customWidth="1"/>
     <col min="9" max="9" width="8" customWidth="1"/>
-    <col min="10" max="11" width="6.375" customWidth="1"/>
+    <col min="10" max="11" width="6.33203125" customWidth="1"/>
     <col min="12" max="12" width="8" customWidth="1"/>
-    <col min="13" max="13" width="32.75" customWidth="1"/>
+    <col min="13" max="13" width="32.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
-      <c r="A1" s="99" t="s">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A1" s="100" t="s">
         <v>52</v>
       </c>
-      <c r="B1" s="99"/>
-      <c r="C1" s="99"/>
-      <c r="D1" s="99"/>
-      <c r="E1" s="99"/>
-      <c r="F1" s="99"/>
-      <c r="G1" s="99"/>
-      <c r="H1" s="99"/>
-      <c r="I1" s="99"/>
-      <c r="J1" s="99"/>
-      <c r="K1" s="99"/>
-      <c r="L1" s="99"/>
-      <c r="M1" s="100"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="101"/>
-      <c r="B2" s="101"/>
-      <c r="C2" s="101"/>
-      <c r="D2" s="101"/>
-      <c r="E2" s="101"/>
-      <c r="F2" s="101"/>
-      <c r="G2" s="101"/>
-      <c r="H2" s="101"/>
-      <c r="I2" s="101"/>
-      <c r="J2" s="101"/>
-      <c r="K2" s="101"/>
-      <c r="L2" s="101"/>
-      <c r="M2" s="102"/>
-    </row>
-    <row r="3" spans="1:13" ht="16.5">
+      <c r="B1" s="100"/>
+      <c r="C1" s="100"/>
+      <c r="D1" s="100"/>
+      <c r="E1" s="100"/>
+      <c r="F1" s="100"/>
+      <c r="G1" s="100"/>
+      <c r="H1" s="100"/>
+      <c r="I1" s="100"/>
+      <c r="J1" s="100"/>
+      <c r="K1" s="100"/>
+      <c r="L1" s="100"/>
+      <c r="M1" s="101"/>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A2" s="102"/>
+      <c r="B2" s="102"/>
+      <c r="C2" s="102"/>
+      <c r="D2" s="102"/>
+      <c r="E2" s="102"/>
+      <c r="F2" s="102"/>
+      <c r="G2" s="102"/>
+      <c r="H2" s="102"/>
+      <c r="I2" s="102"/>
+      <c r="J2" s="102"/>
+      <c r="K2" s="102"/>
+      <c r="L2" s="102"/>
+      <c r="M2" s="103"/>
+    </row>
+    <row r="3" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A3" s="8" t="s">
         <v>53</v>
       </c>
@@ -6339,7 +6359,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="16.5">
+    <row r="4" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A4" s="9"/>
       <c r="B4" s="9"/>
       <c r="C4" s="9"/>
@@ -6354,7 +6374,7 @@
       <c r="L4" s="9"/>
       <c r="M4" s="11"/>
     </row>
-    <row r="5" spans="1:13" ht="16.5">
+    <row r="5" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A5" s="9"/>
       <c r="B5" s="9"/>
       <c r="C5" s="9"/>
@@ -6369,7 +6389,7 @@
       <c r="L5" s="9"/>
       <c r="M5" s="11"/>
     </row>
-    <row r="6" spans="1:13" ht="16.5">
+    <row r="6" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A6" s="9"/>
       <c r="B6" s="12"/>
       <c r="C6" s="12"/>
@@ -6384,7 +6404,7 @@
       <c r="L6" s="12"/>
       <c r="M6" s="9"/>
     </row>
-    <row r="7" spans="1:13" ht="16.5">
+    <row r="7" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A7" s="9"/>
       <c r="B7" s="14"/>
       <c r="C7" s="14"/>
@@ -6399,7 +6419,7 @@
       <c r="L7" s="14"/>
       <c r="M7" s="17"/>
     </row>
-    <row r="8" spans="1:13" ht="16.5">
+    <row r="8" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A8" s="9"/>
       <c r="B8" s="14"/>
       <c r="C8" s="14"/>
@@ -6414,7 +6434,7 @@
       <c r="L8" s="9"/>
       <c r="M8" s="11"/>
     </row>
-    <row r="9" spans="1:13" ht="16.5">
+    <row r="9" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A9" s="9"/>
       <c r="B9" s="9"/>
       <c r="C9" s="9"/>
@@ -6429,7 +6449,7 @@
       <c r="L9" s="9"/>
       <c r="M9" s="9"/>
     </row>
-    <row r="10" spans="1:13" ht="16.5">
+    <row r="10" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A10" s="9"/>
       <c r="B10" s="9"/>
       <c r="C10" s="9"/>
@@ -6444,7 +6464,7 @@
       <c r="L10" s="9"/>
       <c r="M10" s="9"/>
     </row>
-    <row r="11" spans="1:13" ht="16.5">
+    <row r="11" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A11" s="9"/>
       <c r="B11" s="9"/>
       <c r="C11" s="9"/>
@@ -6459,7 +6479,7 @@
       <c r="L11" s="9"/>
       <c r="M11" s="9"/>
     </row>
-    <row r="12" spans="1:13" ht="16.5">
+    <row r="12" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A12" s="9"/>
       <c r="B12" s="9"/>
       <c r="C12" s="9"/>
@@ -6474,7 +6494,7 @@
       <c r="L12" s="9"/>
       <c r="M12" s="9"/>
     </row>
-    <row r="13" spans="1:13" ht="16.5">
+    <row r="13" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A13" s="9"/>
       <c r="B13" s="9"/>
       <c r="C13" s="9"/>
@@ -6489,7 +6509,7 @@
       <c r="L13" s="9"/>
       <c r="M13" s="9"/>
     </row>
-    <row r="14" spans="1:13" ht="16.5">
+    <row r="14" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A14" s="9"/>
       <c r="B14" s="9"/>
       <c r="C14" s="9"/>
@@ -6504,7 +6524,7 @@
       <c r="L14" s="9"/>
       <c r="M14" s="9"/>
     </row>
-    <row r="15" spans="1:13" ht="16.5">
+    <row r="15" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A15" s="9"/>
       <c r="B15" s="9"/>
       <c r="C15" s="9"/>
@@ -6519,7 +6539,7 @@
       <c r="L15" s="9"/>
       <c r="M15" s="9"/>
     </row>
-    <row r="16" spans="1:13" ht="16.5">
+    <row r="16" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A16" s="9"/>
       <c r="B16" s="9"/>
       <c r="C16" s="9"/>
@@ -6558,61 +6578,61 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G33" sqref="G33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="39.5" defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="39.5" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="4.75" customWidth="1"/>
-    <col min="2" max="3" width="6.375" customWidth="1"/>
+    <col min="1" max="1" width="4.6640625" customWidth="1"/>
+    <col min="2" max="3" width="6.33203125" customWidth="1"/>
     <col min="4" max="4" width="11.5" customWidth="1"/>
-    <col min="5" max="5" width="32.75" customWidth="1"/>
-    <col min="6" max="6" width="4.75" customWidth="1"/>
-    <col min="7" max="7" width="57.25" customWidth="1"/>
-    <col min="8" max="8" width="16.75" customWidth="1"/>
+    <col min="5" max="5" width="32.6640625" customWidth="1"/>
+    <col min="6" max="6" width="4.6640625" customWidth="1"/>
+    <col min="7" max="7" width="57.1640625" customWidth="1"/>
+    <col min="8" max="8" width="16.6640625" customWidth="1"/>
     <col min="9" max="9" width="8" customWidth="1"/>
-    <col min="10" max="11" width="6.375" customWidth="1"/>
+    <col min="10" max="11" width="6.33203125" customWidth="1"/>
     <col min="12" max="12" width="8" customWidth="1"/>
-    <col min="13" max="13" width="32.75" customWidth="1"/>
+    <col min="13" max="13" width="32.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
-      <c r="A1" s="99" t="s">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A1" s="100" t="s">
         <v>52</v>
       </c>
-      <c r="B1" s="99"/>
-      <c r="C1" s="99"/>
-      <c r="D1" s="99"/>
-      <c r="E1" s="99"/>
-      <c r="F1" s="99"/>
-      <c r="G1" s="99"/>
-      <c r="H1" s="99"/>
-      <c r="I1" s="99"/>
-      <c r="J1" s="99"/>
-      <c r="K1" s="99"/>
-      <c r="L1" s="99"/>
-      <c r="M1" s="100"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="101"/>
-      <c r="B2" s="101"/>
-      <c r="C2" s="101"/>
-      <c r="D2" s="101"/>
-      <c r="E2" s="101"/>
-      <c r="F2" s="101"/>
-      <c r="G2" s="101"/>
-      <c r="H2" s="101"/>
-      <c r="I2" s="101"/>
-      <c r="J2" s="101"/>
-      <c r="K2" s="101"/>
-      <c r="L2" s="101"/>
-      <c r="M2" s="102"/>
-    </row>
-    <row r="3" spans="1:13" ht="16.5">
+      <c r="B1" s="100"/>
+      <c r="C1" s="100"/>
+      <c r="D1" s="100"/>
+      <c r="E1" s="100"/>
+      <c r="F1" s="100"/>
+      <c r="G1" s="100"/>
+      <c r="H1" s="100"/>
+      <c r="I1" s="100"/>
+      <c r="J1" s="100"/>
+      <c r="K1" s="100"/>
+      <c r="L1" s="100"/>
+      <c r="M1" s="101"/>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A2" s="102"/>
+      <c r="B2" s="102"/>
+      <c r="C2" s="102"/>
+      <c r="D2" s="102"/>
+      <c r="E2" s="102"/>
+      <c r="F2" s="102"/>
+      <c r="G2" s="102"/>
+      <c r="H2" s="102"/>
+      <c r="I2" s="102"/>
+      <c r="J2" s="102"/>
+      <c r="K2" s="102"/>
+      <c r="L2" s="102"/>
+      <c r="M2" s="103"/>
+    </row>
+    <row r="3" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A3" s="8" t="s">
         <v>53</v>
       </c>
@@ -6653,7 +6673,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="16.5">
+    <row r="4" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A4" s="9"/>
       <c r="B4" s="9"/>
       <c r="C4" s="9"/>
@@ -6668,7 +6688,7 @@
       <c r="L4" s="9"/>
       <c r="M4" s="11"/>
     </row>
-    <row r="5" spans="1:13" ht="16.5">
+    <row r="5" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A5" s="9"/>
       <c r="B5" s="9"/>
       <c r="C5" s="9"/>
@@ -6683,7 +6703,7 @@
       <c r="L5" s="9"/>
       <c r="M5" s="11"/>
     </row>
-    <row r="6" spans="1:13" ht="16.5">
+    <row r="6" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A6" s="9"/>
       <c r="B6" s="12"/>
       <c r="C6" s="12"/>
@@ -6698,7 +6718,7 @@
       <c r="L6" s="12"/>
       <c r="M6" s="9"/>
     </row>
-    <row r="7" spans="1:13" ht="16.5">
+    <row r="7" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A7" s="9"/>
       <c r="B7" s="14"/>
       <c r="C7" s="14"/>
@@ -6713,7 +6733,7 @@
       <c r="L7" s="14"/>
       <c r="M7" s="17"/>
     </row>
-    <row r="8" spans="1:13" ht="16.5">
+    <row r="8" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A8" s="9"/>
       <c r="B8" s="14"/>
       <c r="C8" s="14"/>
@@ -6728,7 +6748,7 @@
       <c r="L8" s="9"/>
       <c r="M8" s="11"/>
     </row>
-    <row r="9" spans="1:13" ht="16.5">
+    <row r="9" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A9" s="9"/>
       <c r="B9" s="9"/>
       <c r="C9" s="9"/>
@@ -6743,7 +6763,7 @@
       <c r="L9" s="9"/>
       <c r="M9" s="9"/>
     </row>
-    <row r="10" spans="1:13" ht="16.5">
+    <row r="10" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A10" s="9"/>
       <c r="B10" s="9"/>
       <c r="C10" s="9"/>
@@ -6758,7 +6778,7 @@
       <c r="L10" s="9"/>
       <c r="M10" s="9"/>
     </row>
-    <row r="11" spans="1:13" ht="16.5">
+    <row r="11" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A11" s="9"/>
       <c r="B11" s="9"/>
       <c r="C11" s="9"/>
@@ -6773,7 +6793,7 @@
       <c r="L11" s="9"/>
       <c r="M11" s="9"/>
     </row>
-    <row r="12" spans="1:13" ht="16.5">
+    <row r="12" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A12" s="9"/>
       <c r="B12" s="9"/>
       <c r="C12" s="9"/>
@@ -6788,7 +6808,7 @@
       <c r="L12" s="9"/>
       <c r="M12" s="9"/>
     </row>
-    <row r="13" spans="1:13" ht="16.5">
+    <row r="13" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A13" s="9"/>
       <c r="B13" s="9"/>
       <c r="C13" s="9"/>
@@ -6803,7 +6823,7 @@
       <c r="L13" s="9"/>
       <c r="M13" s="9"/>
     </row>
-    <row r="14" spans="1:13" ht="16.5">
+    <row r="14" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A14" s="9"/>
       <c r="B14" s="9"/>
       <c r="C14" s="9"/>
@@ -6818,7 +6838,7 @@
       <c r="L14" s="9"/>
       <c r="M14" s="9"/>
     </row>
-    <row r="15" spans="1:13" ht="16.5">
+    <row r="15" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A15" s="9"/>
       <c r="B15" s="9"/>
       <c r="C15" s="9"/>
@@ -6833,7 +6853,7 @@
       <c r="L15" s="9"/>
       <c r="M15" s="9"/>
     </row>
-    <row r="16" spans="1:13" ht="16.5">
+    <row r="16" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A16" s="9"/>
       <c r="B16" s="9"/>
       <c r="C16" s="9"/>
@@ -6872,61 +6892,61 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="G32" sqref="G32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="39.5" defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="39.5" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="4.75" customWidth="1"/>
-    <col min="2" max="3" width="6.375" customWidth="1"/>
+    <col min="1" max="1" width="4.6640625" customWidth="1"/>
+    <col min="2" max="3" width="6.33203125" customWidth="1"/>
     <col min="4" max="4" width="11.5" customWidth="1"/>
-    <col min="5" max="5" width="32.75" customWidth="1"/>
-    <col min="6" max="6" width="4.75" customWidth="1"/>
-    <col min="7" max="7" width="57.25" customWidth="1"/>
-    <col min="8" max="8" width="16.75" customWidth="1"/>
+    <col min="5" max="5" width="32.6640625" customWidth="1"/>
+    <col min="6" max="6" width="4.6640625" customWidth="1"/>
+    <col min="7" max="7" width="57.1640625" customWidth="1"/>
+    <col min="8" max="8" width="16.6640625" customWidth="1"/>
     <col min="9" max="9" width="8" customWidth="1"/>
-    <col min="10" max="11" width="6.375" customWidth="1"/>
+    <col min="10" max="11" width="6.33203125" customWidth="1"/>
     <col min="12" max="12" width="8" customWidth="1"/>
-    <col min="13" max="13" width="32.75" customWidth="1"/>
+    <col min="13" max="13" width="32.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
-      <c r="A1" s="99" t="s">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A1" s="100" t="s">
         <v>52</v>
       </c>
-      <c r="B1" s="99"/>
-      <c r="C1" s="99"/>
-      <c r="D1" s="99"/>
-      <c r="E1" s="99"/>
-      <c r="F1" s="99"/>
-      <c r="G1" s="99"/>
-      <c r="H1" s="99"/>
-      <c r="I1" s="99"/>
-      <c r="J1" s="99"/>
-      <c r="K1" s="99"/>
-      <c r="L1" s="99"/>
-      <c r="M1" s="100"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="101"/>
-      <c r="B2" s="101"/>
-      <c r="C2" s="101"/>
-      <c r="D2" s="101"/>
-      <c r="E2" s="101"/>
-      <c r="F2" s="101"/>
-      <c r="G2" s="101"/>
-      <c r="H2" s="101"/>
-      <c r="I2" s="101"/>
-      <c r="J2" s="101"/>
-      <c r="K2" s="101"/>
-      <c r="L2" s="101"/>
-      <c r="M2" s="102"/>
-    </row>
-    <row r="3" spans="1:13" ht="16.5">
+      <c r="B1" s="100"/>
+      <c r="C1" s="100"/>
+      <c r="D1" s="100"/>
+      <c r="E1" s="100"/>
+      <c r="F1" s="100"/>
+      <c r="G1" s="100"/>
+      <c r="H1" s="100"/>
+      <c r="I1" s="100"/>
+      <c r="J1" s="100"/>
+      <c r="K1" s="100"/>
+      <c r="L1" s="100"/>
+      <c r="M1" s="101"/>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A2" s="102"/>
+      <c r="B2" s="102"/>
+      <c r="C2" s="102"/>
+      <c r="D2" s="102"/>
+      <c r="E2" s="102"/>
+      <c r="F2" s="102"/>
+      <c r="G2" s="102"/>
+      <c r="H2" s="102"/>
+      <c r="I2" s="102"/>
+      <c r="J2" s="102"/>
+      <c r="K2" s="102"/>
+      <c r="L2" s="102"/>
+      <c r="M2" s="103"/>
+    </row>
+    <row r="3" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A3" s="8" t="s">
         <v>53</v>
       </c>
@@ -6967,7 +6987,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="16.5">
+    <row r="4" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A4" s="9"/>
       <c r="B4" s="9"/>
       <c r="C4" s="9"/>
@@ -6982,7 +7002,7 @@
       <c r="L4" s="9"/>
       <c r="M4" s="11"/>
     </row>
-    <row r="5" spans="1:13" ht="16.5">
+    <row r="5" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A5" s="9"/>
       <c r="B5" s="9"/>
       <c r="C5" s="9"/>
@@ -6997,7 +7017,7 @@
       <c r="L5" s="9"/>
       <c r="M5" s="11"/>
     </row>
-    <row r="6" spans="1:13" ht="16.5">
+    <row r="6" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A6" s="9"/>
       <c r="B6" s="12"/>
       <c r="C6" s="12"/>
@@ -7012,7 +7032,7 @@
       <c r="L6" s="12"/>
       <c r="M6" s="9"/>
     </row>
-    <row r="7" spans="1:13" ht="16.5">
+    <row r="7" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A7" s="9"/>
       <c r="B7" s="14"/>
       <c r="C7" s="14"/>
@@ -7027,7 +7047,7 @@
       <c r="L7" s="14"/>
       <c r="M7" s="17"/>
     </row>
-    <row r="8" spans="1:13" ht="16.5">
+    <row r="8" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A8" s="9"/>
       <c r="B8" s="14"/>
       <c r="C8" s="14"/>
@@ -7042,7 +7062,7 @@
       <c r="L8" s="9"/>
       <c r="M8" s="11"/>
     </row>
-    <row r="9" spans="1:13" ht="16.5">
+    <row r="9" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A9" s="9"/>
       <c r="B9" s="9"/>
       <c r="C9" s="9"/>
@@ -7057,7 +7077,7 @@
       <c r="L9" s="9"/>
       <c r="M9" s="9"/>
     </row>
-    <row r="10" spans="1:13" ht="16.5">
+    <row r="10" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A10" s="9"/>
       <c r="B10" s="9"/>
       <c r="C10" s="9"/>
@@ -7072,7 +7092,7 @@
       <c r="L10" s="9"/>
       <c r="M10" s="9"/>
     </row>
-    <row r="11" spans="1:13" ht="16.5">
+    <row r="11" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A11" s="9"/>
       <c r="B11" s="9"/>
       <c r="C11" s="9"/>
@@ -7087,7 +7107,7 @@
       <c r="L11" s="9"/>
       <c r="M11" s="9"/>
     </row>
-    <row r="12" spans="1:13" ht="16.5">
+    <row r="12" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A12" s="9"/>
       <c r="B12" s="9"/>
       <c r="C12" s="9"/>
@@ -7102,7 +7122,7 @@
       <c r="L12" s="9"/>
       <c r="M12" s="9"/>
     </row>
-    <row r="13" spans="1:13" ht="16.5">
+    <row r="13" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A13" s="9"/>
       <c r="B13" s="9"/>
       <c r="C13" s="9"/>
@@ -7117,7 +7137,7 @@
       <c r="L13" s="9"/>
       <c r="M13" s="9"/>
     </row>
-    <row r="14" spans="1:13" ht="16.5">
+    <row r="14" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A14" s="9"/>
       <c r="B14" s="9"/>
       <c r="C14" s="9"/>
@@ -7132,7 +7152,7 @@
       <c r="L14" s="9"/>
       <c r="M14" s="9"/>
     </row>
-    <row r="15" spans="1:13" ht="16.5">
+    <row r="15" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A15" s="9"/>
       <c r="B15" s="9"/>
       <c r="C15" s="9"/>
@@ -7147,7 +7167,7 @@
       <c r="L15" s="9"/>
       <c r="M15" s="9"/>
     </row>
-    <row r="16" spans="1:13" ht="16.5">
+    <row r="16" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A16" s="9"/>
       <c r="B16" s="9"/>
       <c r="C16" s="9"/>
@@ -7186,63 +7206,63 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H34" sqref="H34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="39.5" defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="39.5" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="4.75" customWidth="1"/>
-    <col min="2" max="2" width="10.125" customWidth="1"/>
-    <col min="3" max="3" width="10.625" customWidth="1"/>
-    <col min="4" max="4" width="19.625" customWidth="1"/>
-    <col min="5" max="5" width="19.375" customWidth="1"/>
-    <col min="6" max="6" width="7.875" customWidth="1"/>
-    <col min="7" max="7" width="57.25" customWidth="1"/>
-    <col min="8" max="8" width="16.75" customWidth="1"/>
+    <col min="1" max="1" width="4.6640625" customWidth="1"/>
+    <col min="2" max="2" width="10.1640625" customWidth="1"/>
+    <col min="3" max="3" width="10.6640625" customWidth="1"/>
+    <col min="4" max="4" width="19.6640625" customWidth="1"/>
+    <col min="5" max="5" width="19.33203125" customWidth="1"/>
+    <col min="6" max="6" width="7.83203125" customWidth="1"/>
+    <col min="7" max="7" width="57.1640625" customWidth="1"/>
+    <col min="8" max="8" width="16.6640625" customWidth="1"/>
     <col min="9" max="9" width="8" customWidth="1"/>
-    <col min="10" max="10" width="7.75" customWidth="1"/>
+    <col min="10" max="10" width="7.6640625" customWidth="1"/>
     <col min="11" max="11" width="7.5" customWidth="1"/>
     <col min="12" max="12" width="8" customWidth="1"/>
-    <col min="13" max="13" width="32.75" customWidth="1"/>
+    <col min="13" max="13" width="32.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
-      <c r="A1" s="99" t="s">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A1" s="100" t="s">
         <v>52</v>
       </c>
-      <c r="B1" s="99"/>
-      <c r="C1" s="99"/>
-      <c r="D1" s="99"/>
-      <c r="E1" s="99"/>
-      <c r="F1" s="99"/>
-      <c r="G1" s="99"/>
-      <c r="H1" s="99"/>
-      <c r="I1" s="99"/>
-      <c r="J1" s="99"/>
-      <c r="K1" s="99"/>
-      <c r="L1" s="99"/>
-      <c r="M1" s="100"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="101"/>
-      <c r="B2" s="101"/>
-      <c r="C2" s="101"/>
-      <c r="D2" s="101"/>
-      <c r="E2" s="101"/>
-      <c r="F2" s="101"/>
-      <c r="G2" s="101"/>
-      <c r="H2" s="101"/>
-      <c r="I2" s="101"/>
-      <c r="J2" s="101"/>
-      <c r="K2" s="101"/>
-      <c r="L2" s="101"/>
-      <c r="M2" s="102"/>
-    </row>
-    <row r="3" spans="1:13" ht="16.5">
+      <c r="B1" s="100"/>
+      <c r="C1" s="100"/>
+      <c r="D1" s="100"/>
+      <c r="E1" s="100"/>
+      <c r="F1" s="100"/>
+      <c r="G1" s="100"/>
+      <c r="H1" s="100"/>
+      <c r="I1" s="100"/>
+      <c r="J1" s="100"/>
+      <c r="K1" s="100"/>
+      <c r="L1" s="100"/>
+      <c r="M1" s="101"/>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A2" s="102"/>
+      <c r="B2" s="102"/>
+      <c r="C2" s="102"/>
+      <c r="D2" s="102"/>
+      <c r="E2" s="102"/>
+      <c r="F2" s="102"/>
+      <c r="G2" s="102"/>
+      <c r="H2" s="102"/>
+      <c r="I2" s="102"/>
+      <c r="J2" s="102"/>
+      <c r="K2" s="102"/>
+      <c r="L2" s="102"/>
+      <c r="M2" s="103"/>
+    </row>
+    <row r="3" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A3" s="8" t="s">
         <v>53</v>
       </c>
@@ -7283,7 +7303,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="16.5">
+    <row r="4" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A4" s="9"/>
       <c r="B4" s="9"/>
       <c r="C4" s="9"/>
@@ -7298,7 +7318,7 @@
       <c r="L4" s="9"/>
       <c r="M4" s="11"/>
     </row>
-    <row r="5" spans="1:13" ht="16.5">
+    <row r="5" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A5" s="9"/>
       <c r="B5" s="9"/>
       <c r="C5" s="9"/>
@@ -7313,7 +7333,7 @@
       <c r="L5" s="9"/>
       <c r="M5" s="11"/>
     </row>
-    <row r="6" spans="1:13" ht="16.5">
+    <row r="6" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A6" s="9"/>
       <c r="B6" s="9"/>
       <c r="C6" s="9"/>
@@ -7328,7 +7348,7 @@
       <c r="L6" s="12"/>
       <c r="M6" s="9"/>
     </row>
-    <row r="7" spans="1:13" ht="16.5">
+    <row r="7" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A7" s="9"/>
       <c r="B7" s="14"/>
       <c r="C7" s="14"/>
@@ -7343,7 +7363,7 @@
       <c r="L7" s="14"/>
       <c r="M7" s="17"/>
     </row>
-    <row r="8" spans="1:13" ht="16.5">
+    <row r="8" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A8" s="9"/>
       <c r="B8" s="14"/>
       <c r="C8" s="14"/>
@@ -7358,7 +7378,7 @@
       <c r="L8" s="9"/>
       <c r="M8" s="11"/>
     </row>
-    <row r="9" spans="1:13" ht="16.5">
+    <row r="9" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A9" s="9"/>
       <c r="B9" s="9"/>
       <c r="C9" s="9"/>
@@ -7373,7 +7393,7 @@
       <c r="L9" s="9"/>
       <c r="M9" s="9"/>
     </row>
-    <row r="10" spans="1:13" ht="16.5">
+    <row r="10" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A10" s="9"/>
       <c r="B10" s="9"/>
       <c r="C10" s="9"/>
@@ -7388,7 +7408,7 @@
       <c r="L10" s="9"/>
       <c r="M10" s="9"/>
     </row>
-    <row r="11" spans="1:13" ht="16.5">
+    <row r="11" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A11" s="9"/>
       <c r="B11" s="9"/>
       <c r="C11" s="9"/>
@@ -7403,7 +7423,7 @@
       <c r="L11" s="9"/>
       <c r="M11" s="9"/>
     </row>
-    <row r="12" spans="1:13" ht="16.5">
+    <row r="12" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A12" s="9"/>
       <c r="B12" s="9"/>
       <c r="C12" s="9"/>
@@ -7418,7 +7438,7 @@
       <c r="L12" s="9"/>
       <c r="M12" s="9"/>
     </row>
-    <row r="13" spans="1:13" ht="16.5">
+    <row r="13" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A13" s="9"/>
       <c r="B13" s="9"/>
       <c r="C13" s="9"/>
@@ -7433,7 +7453,7 @@
       <c r="L13" s="9"/>
       <c r="M13" s="9"/>
     </row>
-    <row r="14" spans="1:13" ht="16.5">
+    <row r="14" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A14" s="9"/>
       <c r="B14" s="9"/>
       <c r="C14" s="9"/>
@@ -7448,7 +7468,7 @@
       <c r="L14" s="9"/>
       <c r="M14" s="9"/>
     </row>
-    <row r="15" spans="1:13" ht="16.5">
+    <row r="15" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A15" s="9"/>
       <c r="B15" s="9"/>
       <c r="C15" s="9"/>
@@ -7463,7 +7483,7 @@
       <c r="L15" s="9"/>
       <c r="M15" s="9"/>
     </row>
-    <row r="16" spans="1:13" ht="16.5">
+    <row r="16" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A16" s="9"/>
       <c r="B16" s="9"/>
       <c r="C16" s="9"/>
@@ -7502,25 +7522,25 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="17" customWidth="1"/>
-    <col min="2" max="2" width="43.125" customWidth="1"/>
+    <col min="2" max="2" width="43.1640625" customWidth="1"/>
     <col min="3" max="3" width="13" customWidth="1"/>
     <col min="5" max="5" width="12" customWidth="1"/>
-    <col min="6" max="6" width="20.625" customWidth="1"/>
-    <col min="7" max="7" width="42.125" customWidth="1"/>
-    <col min="8" max="8" width="15.125" customWidth="1"/>
+    <col min="6" max="6" width="20.6640625" customWidth="1"/>
+    <col min="7" max="7" width="42.1640625" customWidth="1"/>
+    <col min="8" max="8" width="15.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>62</v>
       </c>
@@ -7546,7 +7566,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="1" customFormat="1">
+    <row r="2" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -7556,7 +7576,7 @@
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A3" s="6"/>
       <c r="B3" s="6"/>
       <c r="C3" s="6"/>
@@ -7566,7 +7586,7 @@
       <c r="G3" s="6"/>
       <c r="H3" s="6"/>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A4" s="6"/>
       <c r="B4" s="6"/>
       <c r="C4" s="6"/>
@@ -7576,7 +7596,7 @@
       <c r="G4" s="6"/>
       <c r="H4" s="6"/>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A5" s="6"/>
       <c r="B5" s="6"/>
       <c r="C5" s="6"/>
@@ -7586,7 +7606,7 @@
       <c r="G5" s="6"/>
       <c r="H5" s="6"/>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A6" s="6"/>
       <c r="B6" s="6"/>
       <c r="C6" s="6"/>
@@ -7596,7 +7616,7 @@
       <c r="G6" s="6"/>
       <c r="H6" s="6"/>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A7" s="6"/>
       <c r="B7" s="6"/>
       <c r="C7" s="6"/>
@@ -7606,7 +7626,7 @@
       <c r="G7" s="6"/>
       <c r="H7" s="6"/>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A8" s="6"/>
       <c r="B8" s="6"/>
       <c r="C8" s="6"/>
@@ -7616,7 +7636,7 @@
       <c r="G8" s="6"/>
       <c r="H8" s="6"/>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A9" s="6"/>
       <c r="B9" s="6"/>
       <c r="C9" s="6"/>
@@ -7626,7 +7646,7 @@
       <c r="G9" s="6"/>
       <c r="H9" s="6"/>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A10" s="6"/>
       <c r="B10" s="6"/>
       <c r="C10" s="6"/>
@@ -7636,7 +7656,7 @@
       <c r="G10" s="6"/>
       <c r="H10" s="6"/>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A11" s="6"/>
       <c r="B11" s="6"/>
       <c r="C11" s="6"/>
@@ -7646,7 +7666,7 @@
       <c r="G11" s="6"/>
       <c r="H11" s="6"/>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A12" s="6"/>
       <c r="B12" s="6"/>
       <c r="C12" s="6"/>
@@ -7656,7 +7676,7 @@
       <c r="G12" s="6"/>
       <c r="H12" s="6"/>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A13" s="6"/>
       <c r="B13" s="6"/>
       <c r="C13" s="6"/>
@@ -7666,7 +7686,7 @@
       <c r="G13" s="6"/>
       <c r="H13" s="6"/>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A14" s="6"/>
       <c r="B14" s="6"/>
       <c r="C14" s="6"/>
@@ -7676,7 +7696,7 @@
       <c r="G14" s="6"/>
       <c r="H14" s="6"/>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A15" s="6"/>
       <c r="B15" s="6"/>
       <c r="C15" s="6"/>
@@ -7686,7 +7706,7 @@
       <c r="G15" s="6"/>
       <c r="H15" s="6"/>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A16" s="6"/>
       <c r="B16" s="6"/>
       <c r="C16" s="6"/>
@@ -7696,7 +7716,7 @@
       <c r="G16" s="6"/>
       <c r="H16" s="6"/>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A17" s="6"/>
       <c r="B17" s="6"/>
       <c r="C17" s="6"/>
@@ -7706,7 +7726,7 @@
       <c r="G17" s="6"/>
       <c r="H17" s="6"/>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A18" s="6"/>
       <c r="B18" s="6"/>
       <c r="C18" s="6"/>
@@ -7716,7 +7736,7 @@
       <c r="G18" s="6"/>
       <c r="H18" s="6"/>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A19" s="6"/>
       <c r="B19" s="6"/>
       <c r="C19" s="6"/>
